--- a/EC/Train Runs and Enforcements 2016-07-09.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Variables" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$U$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$V$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Trips'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AD$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Trips&amp;Operators'!$A$1:$E$211</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="631">
   <si>
     <t>Train ID</t>
   </si>
@@ -1952,6 +1952,9 @@
   </si>
   <si>
     <t>Pena 4S was at STOP, switch wasn't aligned</t>
+  </si>
+  <si>
+    <t>Omit due to TWC &lt; 1</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2333,7 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="126">
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2577,12 +2580,6 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2600,9 +2597,6 @@
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2636,14 +2630,20 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2658,6 +2658,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3004,7 +3014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3027,7 +3039,7 @@
     <col min="18" max="18" width="28.140625" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="27" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" style="111" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" style="107" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="26" customWidth="1"/>
     <col min="23" max="23" width="3.85546875" style="26" customWidth="1"/>
     <col min="24" max="24" width="4.140625" style="102" customWidth="1"/>
@@ -3054,7 +3066,7 @@
       <c r="N1" s="58"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="U1" s="111"/>
+      <c r="U1" s="107"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
       <c r="X1" s="102"/>
@@ -3074,20 +3086,20 @@
       <c r="F2" s="52"/>
       <c r="G2" s="58"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="122">
+      <c r="I2" s="117">
         <f>Variables!A2</f>
         <v>42560</v>
       </c>
-      <c r="J2" s="123"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="124" t="s">
+      <c r="M2" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="126"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="2"/>
-      <c r="U2" s="111"/>
+      <c r="U2" s="107"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
       <c r="X2" s="102"/>
@@ -3107,10 +3119,10 @@
       <c r="F3" s="52"/>
       <c r="G3" s="58"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="128"/>
+      <c r="J3" s="123"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
       <c r="M3" s="61" t="s">
@@ -3123,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="U3" s="111"/>
+      <c r="U3" s="107"/>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
       <c r="X3" s="102"/>
@@ -3162,7 +3174,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="U4" s="111"/>
+      <c r="U4" s="107"/>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
       <c r="X4" s="102"/>
@@ -3204,7 +3216,7 @@
         <v>55.34999999916181</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="U5" s="111"/>
+      <c r="U5" s="107"/>
       <c r="V5" s="26"/>
       <c r="W5" s="26"/>
       <c r="X5" s="102"/>
@@ -3246,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="U6" s="111"/>
+      <c r="U6" s="107"/>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="102"/>
@@ -3285,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="U7" s="111"/>
+      <c r="U7" s="107"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
       <c r="X7" s="102"/>
@@ -3327,7 +3339,7 @@
         <v>55.34999999916181</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="U8" s="111"/>
+      <c r="U8" s="107"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="102"/>
@@ -3350,7 +3362,7 @@
       <c r="I9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="114">
+      <c r="J9" s="110">
         <f>J8/J4</f>
         <v>0.95804195804195802</v>
       </c>
@@ -3360,7 +3372,7 @@
       <c r="N9" s="58"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="U9" s="111"/>
+      <c r="U9" s="107"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="102"/>
@@ -3388,7 +3400,7 @@
       <c r="N10" s="58"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="U10" s="111"/>
+      <c r="U10" s="107"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="102"/>
@@ -3400,25 +3412,25 @@
       <c r="AD10" s="91"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="str">
+      <c r="A11" s="116" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-07-09</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
@@ -3481,7 +3493,7 @@
       <c r="T12" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="112" t="s">
+      <c r="U12" s="108" t="s">
         <v>88</v>
       </c>
       <c r="V12" s="77" t="s">
@@ -3638,7 +3650,7 @@
         <f t="shared" ref="T13:T14" si="4">IF(ISEVEN(LEFT(A13,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
-      <c r="U13" s="113">
+      <c r="U13" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T13="NorthBound","&gt;=","&lt;=")&amp;Y13,Variables!$M$2:$M$19,IF(T13="NorthBound","&lt;=","&gt;=")&amp;Z13)</f>
         <v>12</v>
       </c>
@@ -3751,7 +3763,7 @@
         <f t="shared" si="4"/>
         <v>Southbound</v>
       </c>
-      <c r="U14" s="113">
+      <c r="U14" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T14="NorthBound","&gt;=","&lt;=")&amp;Y14,Variables!$M$2:$M$19,IF(T14="NorthBound","&lt;=","&gt;=")&amp;Z14)</f>
         <v>12</v>
       </c>
@@ -3863,7 +3875,7 @@
         <f t="shared" ref="T15:T78" si="18">IF(ISEVEN(LEFT(A15,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
-      <c r="U15" s="113">
+      <c r="U15" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T15="NorthBound","&gt;=","&lt;=")&amp;Y15,Variables!$M$2:$M$19,IF(T15="NorthBound","&lt;=","&gt;=")&amp;Z15)</f>
         <v>12</v>
       </c>
@@ -3891,13 +3903,13 @@
         <f t="shared" ref="AA15:AA78" si="24">ABS(Z15-Y15)</f>
         <v>23.2454</v>
       </c>
-      <c r="AB15" s="98">
+      <c r="AB15" s="98" t="e">
         <f>VLOOKUP(A15,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC15" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC15" s="94" t="e">
         <f>VLOOKUP(A15,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD15" s="95" t="str">
         <f t="shared" ref="AD15:AD78" si="25">IF(LEN(A15)=6,"0"&amp;A15,A15)</f>
@@ -3976,7 +3988,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U16" s="113">
+      <c r="U16" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T16="NorthBound","&gt;=","&lt;=")&amp;Y16,Variables!$M$2:$M$19,IF(T16="NorthBound","&lt;=","&gt;=")&amp;Z16)</f>
         <v>12</v>
       </c>
@@ -4088,7 +4100,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U17" s="113">
+      <c r="U17" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T17="NorthBound","&gt;=","&lt;=")&amp;Y17,Variables!$M$2:$M$19,IF(T17="NorthBound","&lt;=","&gt;=")&amp;Z17)</f>
         <v>12</v>
       </c>
@@ -4200,7 +4212,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U18" s="113">
+      <c r="U18" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T18="NorthBound","&gt;=","&lt;=")&amp;Y18,Variables!$M$2:$M$19,IF(T18="NorthBound","&lt;=","&gt;=")&amp;Z18)</f>
         <v>12</v>
       </c>
@@ -4312,7 +4324,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U19" s="113">
+      <c r="U19" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T19="NorthBound","&gt;=","&lt;=")&amp;Y19,Variables!$M$2:$M$19,IF(T19="NorthBound","&lt;=","&gt;=")&amp;Z19)</f>
         <v>12</v>
       </c>
@@ -4424,7 +4436,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U20" s="113">
+      <c r="U20" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T20="NorthBound","&gt;=","&lt;=")&amp;Y20,Variables!$M$2:$M$19,IF(T20="NorthBound","&lt;=","&gt;=")&amp;Z20)</f>
         <v>12</v>
       </c>
@@ -4536,7 +4548,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U21" s="113">
+      <c r="U21" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T21="NorthBound","&gt;=","&lt;=")&amp;Y21,Variables!$M$2:$M$19,IF(T21="NorthBound","&lt;=","&gt;=")&amp;Z21)</f>
         <v>12</v>
       </c>
@@ -4564,13 +4576,13 @@
         <f t="shared" si="24"/>
         <v>23.281600000000001</v>
       </c>
-      <c r="AB21" s="98">
+      <c r="AB21" s="98" t="e">
         <f>VLOOKUP(A21,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC21" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" s="94" t="e">
         <f>VLOOKUP(A21,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD21" s="95" t="str">
         <f t="shared" si="25"/>
@@ -4648,7 +4660,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U22" s="113">
+      <c r="U22" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T22="NorthBound","&gt;=","&lt;=")&amp;Y22,Variables!$M$2:$M$19,IF(T22="NorthBound","&lt;=","&gt;=")&amp;Z22)</f>
         <v>12</v>
       </c>
@@ -4760,7 +4772,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U23" s="113">
+      <c r="U23" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T23="NorthBound","&gt;=","&lt;=")&amp;Y23,Variables!$M$2:$M$19,IF(T23="NorthBound","&lt;=","&gt;=")&amp;Z23)</f>
         <v>12</v>
       </c>
@@ -4872,7 +4884,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U24" s="113">
+      <c r="U24" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T24="NorthBound","&gt;=","&lt;=")&amp;Y24,Variables!$M$2:$M$19,IF(T24="NorthBound","&lt;=","&gt;=")&amp;Z24)</f>
         <v>12</v>
       </c>
@@ -4984,7 +4996,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U25" s="113">
+      <c r="U25" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T25="NorthBound","&gt;=","&lt;=")&amp;Y25,Variables!$M$2:$M$19,IF(T25="NorthBound","&lt;=","&gt;=")&amp;Z25)</f>
         <v>12</v>
       </c>
@@ -5096,7 +5108,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U26" s="113">
+      <c r="U26" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T26="NorthBound","&gt;=","&lt;=")&amp;Y26,Variables!$M$2:$M$19,IF(T26="NorthBound","&lt;=","&gt;=")&amp;Z26)</f>
         <v>12</v>
       </c>
@@ -5208,7 +5220,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U27" s="113">
+      <c r="U27" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T27="NorthBound","&gt;=","&lt;=")&amp;Y27,Variables!$M$2:$M$19,IF(T27="NorthBound","&lt;=","&gt;=")&amp;Z27)</f>
         <v>12</v>
       </c>
@@ -5320,7 +5332,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U28" s="113">
+      <c r="U28" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T28="NorthBound","&gt;=","&lt;=")&amp;Y28,Variables!$M$2:$M$19,IF(T28="NorthBound","&lt;=","&gt;=")&amp;Z28)</f>
         <v>12</v>
       </c>
@@ -5348,13 +5360,13 @@
         <f t="shared" si="24"/>
         <v>23.2818</v>
       </c>
-      <c r="AB28" s="98">
+      <c r="AB28" s="98" t="e">
         <f>VLOOKUP(A28,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC28" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" s="94" t="e">
         <f>VLOOKUP(A28,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="95" t="str">
         <f t="shared" si="25"/>
@@ -5432,7 +5444,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U29" s="113">
+      <c r="U29" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T29="NorthBound","&gt;=","&lt;=")&amp;Y29,Variables!$M$2:$M$19,IF(T29="NorthBound","&lt;=","&gt;=")&amp;Z29)</f>
         <v>12</v>
       </c>
@@ -5544,7 +5556,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U30" s="113">
+      <c r="U30" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T30="NorthBound","&gt;=","&lt;=")&amp;Y30,Variables!$M$2:$M$19,IF(T30="NorthBound","&lt;=","&gt;=")&amp;Z30)</f>
         <v>12</v>
       </c>
@@ -5572,13 +5584,13 @@
         <f t="shared" si="24"/>
         <v>23.255500000000001</v>
       </c>
-      <c r="AB30" s="98">
+      <c r="AB30" s="98" t="e">
         <f>VLOOKUP(A30,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC30" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" s="94" t="e">
         <f>VLOOKUP(A30,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD30" s="95" t="str">
         <f t="shared" si="25"/>
@@ -5656,7 +5668,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U31" s="113">
+      <c r="U31" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T31="NorthBound","&gt;=","&lt;=")&amp;Y31,Variables!$M$2:$M$19,IF(T31="NorthBound","&lt;=","&gt;=")&amp;Z31)</f>
         <v>12</v>
       </c>
@@ -5768,7 +5780,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U32" s="113">
+      <c r="U32" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T32="NorthBound","&gt;=","&lt;=")&amp;Y32,Variables!$M$2:$M$19,IF(T32="NorthBound","&lt;=","&gt;=")&amp;Z32)</f>
         <v>12</v>
       </c>
@@ -5880,7 +5892,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U33" s="113">
+      <c r="U33" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T33="NorthBound","&gt;=","&lt;=")&amp;Y33,Variables!$M$2:$M$19,IF(T33="NorthBound","&lt;=","&gt;=")&amp;Z33)</f>
         <v>12</v>
       </c>
@@ -5994,7 +6006,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U34" s="113">
+      <c r="U34" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T34="NorthBound","&gt;=","&lt;=")&amp;Y34,Variables!$M$2:$M$19,IF(T34="NorthBound","&lt;=","&gt;=")&amp;Z34)</f>
         <v>9</v>
       </c>
@@ -6106,7 +6118,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U35" s="113">
+      <c r="U35" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T35="NorthBound","&gt;=","&lt;=")&amp;Y35,Variables!$M$2:$M$19,IF(T35="NorthBound","&lt;=","&gt;=")&amp;Z35)</f>
         <v>12</v>
       </c>
@@ -6218,7 +6230,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U36" s="113">
+      <c r="U36" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T36="NorthBound","&gt;=","&lt;=")&amp;Y36,Variables!$M$2:$M$19,IF(T36="NorthBound","&lt;=","&gt;=")&amp;Z36)</f>
         <v>12</v>
       </c>
@@ -6330,7 +6342,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U37" s="113">
+      <c r="U37" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T37="NorthBound","&gt;=","&lt;=")&amp;Y37,Variables!$M$2:$M$19,IF(T37="NorthBound","&lt;=","&gt;=")&amp;Z37)</f>
         <v>12</v>
       </c>
@@ -6442,7 +6454,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U38" s="113">
+      <c r="U38" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T38="NorthBound","&gt;=","&lt;=")&amp;Y38,Variables!$M$2:$M$19,IF(T38="NorthBound","&lt;=","&gt;=")&amp;Z38)</f>
         <v>12</v>
       </c>
@@ -6554,7 +6566,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U39" s="113">
+      <c r="U39" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T39="NorthBound","&gt;=","&lt;=")&amp;Y39,Variables!$M$2:$M$19,IF(T39="NorthBound","&lt;=","&gt;=")&amp;Z39)</f>
         <v>12</v>
       </c>
@@ -6666,7 +6678,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U40" s="113">
+      <c r="U40" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T40="NorthBound","&gt;=","&lt;=")&amp;Y40,Variables!$M$2:$M$19,IF(T40="NorthBound","&lt;=","&gt;=")&amp;Z40)</f>
         <v>12</v>
       </c>
@@ -6778,7 +6790,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U41" s="113">
+      <c r="U41" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T41="NorthBound","&gt;=","&lt;=")&amp;Y41,Variables!$M$2:$M$19,IF(T41="NorthBound","&lt;=","&gt;=")&amp;Z41)</f>
         <v>12</v>
       </c>
@@ -6890,7 +6902,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U42" s="113">
+      <c r="U42" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T42="NorthBound","&gt;=","&lt;=")&amp;Y42,Variables!$M$2:$M$19,IF(T42="NorthBound","&lt;=","&gt;=")&amp;Z42)</f>
         <v>12</v>
       </c>
@@ -7002,7 +7014,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U43" s="113">
+      <c r="U43" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T43="NorthBound","&gt;=","&lt;=")&amp;Y43,Variables!$M$2:$M$19,IF(T43="NorthBound","&lt;=","&gt;=")&amp;Z43)</f>
         <v>12</v>
       </c>
@@ -7030,13 +7042,13 @@
         <f t="shared" si="24"/>
         <v>23.279699999999998</v>
       </c>
-      <c r="AB43" s="98">
+      <c r="AB43" s="98" t="e">
         <f>VLOOKUP(A43,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC43" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC43" s="94" t="e">
         <f>VLOOKUP(A43,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD43" s="95" t="str">
         <f t="shared" si="25"/>
@@ -7114,7 +7126,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U44" s="113">
+      <c r="U44" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T44="NorthBound","&gt;=","&lt;=")&amp;Y44,Variables!$M$2:$M$19,IF(T44="NorthBound","&lt;=","&gt;=")&amp;Z44)</f>
         <v>12</v>
       </c>
@@ -7226,7 +7238,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U45" s="113">
+      <c r="U45" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T45="NorthBound","&gt;=","&lt;=")&amp;Y45,Variables!$M$2:$M$19,IF(T45="NorthBound","&lt;=","&gt;=")&amp;Z45)</f>
         <v>12</v>
       </c>
@@ -7338,7 +7350,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U46" s="113">
+      <c r="U46" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T46="NorthBound","&gt;=","&lt;=")&amp;Y46,Variables!$M$2:$M$19,IF(T46="NorthBound","&lt;=","&gt;=")&amp;Z46)</f>
         <v>12</v>
       </c>
@@ -7450,7 +7462,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U47" s="113">
+      <c r="U47" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T47="NorthBound","&gt;=","&lt;=")&amp;Y47,Variables!$M$2:$M$19,IF(T47="NorthBound","&lt;=","&gt;=")&amp;Z47)</f>
         <v>12</v>
       </c>
@@ -7562,7 +7574,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U48" s="113">
+      <c r="U48" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T48="NorthBound","&gt;=","&lt;=")&amp;Y48,Variables!$M$2:$M$19,IF(T48="NorthBound","&lt;=","&gt;=")&amp;Z48)</f>
         <v>12</v>
       </c>
@@ -7674,7 +7686,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U49" s="113">
+      <c r="U49" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T49="NorthBound","&gt;=","&lt;=")&amp;Y49,Variables!$M$2:$M$19,IF(T49="NorthBound","&lt;=","&gt;=")&amp;Z49)</f>
         <v>12</v>
       </c>
@@ -7786,7 +7798,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U50" s="113">
+      <c r="U50" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T50="NorthBound","&gt;=","&lt;=")&amp;Y50,Variables!$M$2:$M$19,IF(T50="NorthBound","&lt;=","&gt;=")&amp;Z50)</f>
         <v>12</v>
       </c>
@@ -7898,7 +7910,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U51" s="113">
+      <c r="U51" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T51="NorthBound","&gt;=","&lt;=")&amp;Y51,Variables!$M$2:$M$19,IF(T51="NorthBound","&lt;=","&gt;=")&amp;Z51)</f>
         <v>12</v>
       </c>
@@ -8010,7 +8022,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U52" s="113">
+      <c r="U52" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T52="NorthBound","&gt;=","&lt;=")&amp;Y52,Variables!$M$2:$M$19,IF(T52="NorthBound","&lt;=","&gt;=")&amp;Z52)</f>
         <v>12</v>
       </c>
@@ -8122,7 +8134,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U53" s="113">
+      <c r="U53" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T53="NorthBound","&gt;=","&lt;=")&amp;Y53,Variables!$M$2:$M$19,IF(T53="NorthBound","&lt;=","&gt;=")&amp;Z53)</f>
         <v>12</v>
       </c>
@@ -8150,13 +8162,13 @@
         <f t="shared" si="24"/>
         <v>23.273799999999998</v>
       </c>
-      <c r="AB53" s="98">
+      <c r="AB53" s="98" t="e">
         <f>VLOOKUP(A53,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC53" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" s="94" t="e">
         <f>VLOOKUP(A53,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD53" s="95" t="str">
         <f t="shared" si="25"/>
@@ -8234,7 +8246,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U54" s="113">
+      <c r="U54" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T54="NorthBound","&gt;=","&lt;=")&amp;Y54,Variables!$M$2:$M$19,IF(T54="NorthBound","&lt;=","&gt;=")&amp;Z54)</f>
         <v>12</v>
       </c>
@@ -8346,7 +8358,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U55" s="113">
+      <c r="U55" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T55="NorthBound","&gt;=","&lt;=")&amp;Y55,Variables!$M$2:$M$19,IF(T55="NorthBound","&lt;=","&gt;=")&amp;Z55)</f>
         <v>12</v>
       </c>
@@ -8458,7 +8470,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U56" s="113">
+      <c r="U56" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T56="NorthBound","&gt;=","&lt;=")&amp;Y56,Variables!$M$2:$M$19,IF(T56="NorthBound","&lt;=","&gt;=")&amp;Z56)</f>
         <v>12</v>
       </c>
@@ -8570,7 +8582,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U57" s="113">
+      <c r="U57" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T57="NorthBound","&gt;=","&lt;=")&amp;Y57,Variables!$M$2:$M$19,IF(T57="NorthBound","&lt;=","&gt;=")&amp;Z57)</f>
         <v>12</v>
       </c>
@@ -8598,13 +8610,13 @@
         <f t="shared" si="24"/>
         <v>23.2788</v>
       </c>
-      <c r="AB57" s="98">
+      <c r="AB57" s="98" t="e">
         <f>VLOOKUP(A57,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC57" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC57" s="94" t="e">
         <f>VLOOKUP(A57,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD57" s="95" t="str">
         <f t="shared" si="25"/>
@@ -8684,7 +8696,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U58" s="113">
+      <c r="U58" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T58="NorthBound","&gt;=","&lt;=")&amp;Y58,Variables!$M$2:$M$19,IF(T58="NorthBound","&lt;=","&gt;=")&amp;Z58)</f>
         <v>0</v>
       </c>
@@ -8790,7 +8802,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U59" s="113">
+      <c r="U59" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T59="NorthBound","&gt;=","&lt;=")&amp;Y59,Variables!$M$2:$M$19,IF(T59="NorthBound","&lt;=","&gt;=")&amp;Z59)</f>
         <v>9</v>
       </c>
@@ -8896,7 +8908,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U60" s="113">
+      <c r="U60" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T60="NorthBound","&gt;=","&lt;=")&amp;Y60,Variables!$M$2:$M$19,IF(T60="NorthBound","&lt;=","&gt;=")&amp;Z60)</f>
         <v>0</v>
       </c>
@@ -9008,7 +9020,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U61" s="113">
+      <c r="U61" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T61="NorthBound","&gt;=","&lt;=")&amp;Y61,Variables!$M$2:$M$19,IF(T61="NorthBound","&lt;=","&gt;=")&amp;Z61)</f>
         <v>12</v>
       </c>
@@ -9120,7 +9132,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U62" s="113">
+      <c r="U62" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T62="NorthBound","&gt;=","&lt;=")&amp;Y62,Variables!$M$2:$M$19,IF(T62="NorthBound","&lt;=","&gt;=")&amp;Z62)</f>
         <v>12</v>
       </c>
@@ -9232,7 +9244,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U63" s="113">
+      <c r="U63" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T63="NorthBound","&gt;=","&lt;=")&amp;Y63,Variables!$M$2:$M$19,IF(T63="NorthBound","&lt;=","&gt;=")&amp;Z63)</f>
         <v>12</v>
       </c>
@@ -9260,13 +9272,13 @@
         <f t="shared" si="24"/>
         <v>23.284899999999997</v>
       </c>
-      <c r="AB63" s="98">
+      <c r="AB63" s="98" t="e">
         <f>VLOOKUP(A63,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>233491</v>
-      </c>
-      <c r="AC63" s="94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC63" s="94" t="e">
         <f>VLOOKUP(A63,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>TRACK WARRANT AUTHORITY</v>
+        <v>#N/A</v>
       </c>
       <c r="AD63" s="95" t="str">
         <f t="shared" si="25"/>
@@ -9344,7 +9356,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U64" s="113">
+      <c r="U64" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T64="NorthBound","&gt;=","&lt;=")&amp;Y64,Variables!$M$2:$M$19,IF(T64="NorthBound","&lt;=","&gt;=")&amp;Z64)</f>
         <v>12</v>
       </c>
@@ -9458,7 +9470,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U65" s="113">
+      <c r="U65" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T65="NorthBound","&gt;=","&lt;=")&amp;Y65,Variables!$M$2:$M$19,IF(T65="NorthBound","&lt;=","&gt;=")&amp;Z65)</f>
         <v>0</v>
       </c>
@@ -9564,7 +9576,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U66" s="113">
+      <c r="U66" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T66="NorthBound","&gt;=","&lt;=")&amp;Y66,Variables!$M$2:$M$19,IF(T66="NorthBound","&lt;=","&gt;=")&amp;Z66)</f>
         <v>12</v>
       </c>
@@ -9676,7 +9688,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U67" s="113">
+      <c r="U67" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T67="NorthBound","&gt;=","&lt;=")&amp;Y67,Variables!$M$2:$M$19,IF(T67="NorthBound","&lt;=","&gt;=")&amp;Z67)</f>
         <v>12</v>
       </c>
@@ -9788,7 +9800,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U68" s="113">
+      <c r="U68" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T68="NorthBound","&gt;=","&lt;=")&amp;Y68,Variables!$M$2:$M$19,IF(T68="NorthBound","&lt;=","&gt;=")&amp;Z68)</f>
         <v>12</v>
       </c>
@@ -9900,7 +9912,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U69" s="113">
+      <c r="U69" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T69="NorthBound","&gt;=","&lt;=")&amp;Y69,Variables!$M$2:$M$19,IF(T69="NorthBound","&lt;=","&gt;=")&amp;Z69)</f>
         <v>12</v>
       </c>
@@ -10014,7 +10026,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U70" s="113">
+      <c r="U70" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T70="NorthBound","&gt;=","&lt;=")&amp;Y70,Variables!$M$2:$M$19,IF(T70="NorthBound","&lt;=","&gt;=")&amp;Z70)</f>
         <v>12</v>
       </c>
@@ -10126,7 +10138,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U71" s="113">
+      <c r="U71" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T71="NorthBound","&gt;=","&lt;=")&amp;Y71,Variables!$M$2:$M$19,IF(T71="NorthBound","&lt;=","&gt;=")&amp;Z71)</f>
         <v>12</v>
       </c>
@@ -10238,7 +10250,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U72" s="113">
+      <c r="U72" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T72="NorthBound","&gt;=","&lt;=")&amp;Y72,Variables!$M$2:$M$19,IF(T72="NorthBound","&lt;=","&gt;=")&amp;Z72)</f>
         <v>12</v>
       </c>
@@ -10350,7 +10362,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U73" s="113">
+      <c r="U73" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T73="NorthBound","&gt;=","&lt;=")&amp;Y73,Variables!$M$2:$M$19,IF(T73="NorthBound","&lt;=","&gt;=")&amp;Z73)</f>
         <v>12</v>
       </c>
@@ -10378,13 +10390,13 @@
         <f t="shared" si="24"/>
         <v>23.282899999999998</v>
       </c>
-      <c r="AB73" s="98" t="e">
+      <c r="AB73" s="98">
         <f>VLOOKUP(A73,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC73" s="94" t="e">
+        <v>15167</v>
+      </c>
+      <c r="AC73" s="94" t="str">
         <f>VLOOKUP(A73,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD73" s="95" t="str">
         <f t="shared" si="25"/>
@@ -10462,7 +10474,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U74" s="113">
+      <c r="U74" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T74="NorthBound","&gt;=","&lt;=")&amp;Y74,Variables!$M$2:$M$19,IF(T74="NorthBound","&lt;=","&gt;=")&amp;Z74)</f>
         <v>12</v>
       </c>
@@ -10574,7 +10586,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U75" s="113">
+      <c r="U75" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T75="NorthBound","&gt;=","&lt;=")&amp;Y75,Variables!$M$2:$M$19,IF(T75="NorthBound","&lt;=","&gt;=")&amp;Z75)</f>
         <v>12</v>
       </c>
@@ -10602,13 +10614,13 @@
         <f t="shared" si="24"/>
         <v>23.273500000000002</v>
       </c>
-      <c r="AB75" s="98" t="e">
+      <c r="AB75" s="98">
         <f>VLOOKUP(A75,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC75" s="94" t="e">
+        <v>30562</v>
+      </c>
+      <c r="AC75" s="94" t="str">
         <f>VLOOKUP(A75,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD75" s="95" t="str">
         <f t="shared" si="25"/>
@@ -10686,7 +10698,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U76" s="113">
+      <c r="U76" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T76="NorthBound","&gt;=","&lt;=")&amp;Y76,Variables!$M$2:$M$19,IF(T76="NorthBound","&lt;=","&gt;=")&amp;Z76)</f>
         <v>12</v>
       </c>
@@ -10798,7 +10810,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U77" s="113">
+      <c r="U77" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T77="NorthBound","&gt;=","&lt;=")&amp;Y77,Variables!$M$2:$M$19,IF(T77="NorthBound","&lt;=","&gt;=")&amp;Z77)</f>
         <v>12</v>
       </c>
@@ -10910,7 +10922,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U78" s="113">
+      <c r="U78" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T78="NorthBound","&gt;=","&lt;=")&amp;Y78,Variables!$M$2:$M$19,IF(T78="NorthBound","&lt;=","&gt;=")&amp;Z78)</f>
         <v>12</v>
       </c>
@@ -11022,7 +11034,7 @@
         <f t="shared" ref="T79:T140" si="34">IF(ISEVEN(LEFT(A79,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U79" s="113">
+      <c r="U79" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T79="NorthBound","&gt;=","&lt;=")&amp;Y79,Variables!$M$2:$M$19,IF(T79="NorthBound","&lt;=","&gt;=")&amp;Z79)</f>
         <v>12</v>
       </c>
@@ -11135,7 +11147,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U80" s="113">
+      <c r="U80" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T80="NorthBound","&gt;=","&lt;=")&amp;Y80,Variables!$M$2:$M$19,IF(T80="NorthBound","&lt;=","&gt;=")&amp;Z80)</f>
         <v>12</v>
       </c>
@@ -11247,7 +11259,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U81" s="113">
+      <c r="U81" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T81="NorthBound","&gt;=","&lt;=")&amp;Y81,Variables!$M$2:$M$19,IF(T81="NorthBound","&lt;=","&gt;=")&amp;Z81)</f>
         <v>12</v>
       </c>
@@ -11359,7 +11371,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U82" s="113">
+      <c r="U82" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T82="NorthBound","&gt;=","&lt;=")&amp;Y82,Variables!$M$2:$M$19,IF(T82="NorthBound","&lt;=","&gt;=")&amp;Z82)</f>
         <v>12</v>
       </c>
@@ -11471,7 +11483,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U83" s="113">
+      <c r="U83" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T83="NorthBound","&gt;=","&lt;=")&amp;Y83,Variables!$M$2:$M$19,IF(T83="NorthBound","&lt;=","&gt;=")&amp;Z83)</f>
         <v>12</v>
       </c>
@@ -11583,7 +11595,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U84" s="113">
+      <c r="U84" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T84="NorthBound","&gt;=","&lt;=")&amp;Y84,Variables!$M$2:$M$19,IF(T84="NorthBound","&lt;=","&gt;=")&amp;Z84)</f>
         <v>12</v>
       </c>
@@ -11695,7 +11707,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U85" s="113">
+      <c r="U85" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T85="NorthBound","&gt;=","&lt;=")&amp;Y85,Variables!$M$2:$M$19,IF(T85="NorthBound","&lt;=","&gt;=")&amp;Z85)</f>
         <v>12</v>
       </c>
@@ -11807,7 +11819,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U86" s="113">
+      <c r="U86" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T86="NorthBound","&gt;=","&lt;=")&amp;Y86,Variables!$M$2:$M$19,IF(T86="NorthBound","&lt;=","&gt;=")&amp;Z86)</f>
         <v>12</v>
       </c>
@@ -11919,7 +11931,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U87" s="113">
+      <c r="U87" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T87="NorthBound","&gt;=","&lt;=")&amp;Y87,Variables!$M$2:$M$19,IF(T87="NorthBound","&lt;=","&gt;=")&amp;Z87)</f>
         <v>12</v>
       </c>
@@ -12031,7 +12043,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U88" s="113">
+      <c r="U88" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T88="NorthBound","&gt;=","&lt;=")&amp;Y88,Variables!$M$2:$M$19,IF(T88="NorthBound","&lt;=","&gt;=")&amp;Z88)</f>
         <v>12</v>
       </c>
@@ -12143,7 +12155,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U89" s="113">
+      <c r="U89" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T89="NorthBound","&gt;=","&lt;=")&amp;Y89,Variables!$M$2:$M$19,IF(T89="NorthBound","&lt;=","&gt;=")&amp;Z89)</f>
         <v>12</v>
       </c>
@@ -12255,7 +12267,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U90" s="113">
+      <c r="U90" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T90="NorthBound","&gt;=","&lt;=")&amp;Y90,Variables!$M$2:$M$19,IF(T90="NorthBound","&lt;=","&gt;=")&amp;Z90)</f>
         <v>12</v>
       </c>
@@ -12367,7 +12379,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U91" s="113">
+      <c r="U91" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T91="NorthBound","&gt;=","&lt;=")&amp;Y91,Variables!$M$2:$M$19,IF(T91="NorthBound","&lt;=","&gt;=")&amp;Z91)</f>
         <v>12</v>
       </c>
@@ -12479,7 +12491,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U92" s="113">
+      <c r="U92" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T92="NorthBound","&gt;=","&lt;=")&amp;Y92,Variables!$M$2:$M$19,IF(T92="NorthBound","&lt;=","&gt;=")&amp;Z92)</f>
         <v>12</v>
       </c>
@@ -12591,7 +12603,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U93" s="113">
+      <c r="U93" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T93="NorthBound","&gt;=","&lt;=")&amp;Y93,Variables!$M$2:$M$19,IF(T93="NorthBound","&lt;=","&gt;=")&amp;Z93)</f>
         <v>12</v>
       </c>
@@ -12619,13 +12631,13 @@
         <f t="shared" si="40"/>
         <v>23.2897</v>
       </c>
-      <c r="AB93" s="98" t="e">
+      <c r="AB93" s="98">
         <f>VLOOKUP(A93,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC93" s="94" t="e">
+        <v>15167</v>
+      </c>
+      <c r="AC93" s="94" t="str">
         <f>VLOOKUP(A93,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD93" s="95" t="str">
         <f t="shared" si="41"/>
@@ -12703,7 +12715,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U94" s="113">
+      <c r="U94" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T94="NorthBound","&gt;=","&lt;=")&amp;Y94,Variables!$M$2:$M$19,IF(T94="NorthBound","&lt;=","&gt;=")&amp;Z94)</f>
         <v>12</v>
       </c>
@@ -12815,7 +12827,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U95" s="113">
+      <c r="U95" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T95="NorthBound","&gt;=","&lt;=")&amp;Y95,Variables!$M$2:$M$19,IF(T95="NorthBound","&lt;=","&gt;=")&amp;Z95)</f>
         <v>12</v>
       </c>
@@ -12927,7 +12939,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U96" s="113">
+      <c r="U96" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T96="NorthBound","&gt;=","&lt;=")&amp;Y96,Variables!$M$2:$M$19,IF(T96="NorthBound","&lt;=","&gt;=")&amp;Z96)</f>
         <v>12</v>
       </c>
@@ -13039,7 +13051,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U97" s="113">
+      <c r="U97" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T97="NorthBound","&gt;=","&lt;=")&amp;Y97,Variables!$M$2:$M$19,IF(T97="NorthBound","&lt;=","&gt;=")&amp;Z97)</f>
         <v>12</v>
       </c>
@@ -13151,7 +13163,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U98" s="113">
+      <c r="U98" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T98="NorthBound","&gt;=","&lt;=")&amp;Y98,Variables!$M$2:$M$19,IF(T98="NorthBound","&lt;=","&gt;=")&amp;Z98)</f>
         <v>12</v>
       </c>
@@ -13263,7 +13275,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U99" s="113">
+      <c r="U99" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T99="NorthBound","&gt;=","&lt;=")&amp;Y99,Variables!$M$2:$M$19,IF(T99="NorthBound","&lt;=","&gt;=")&amp;Z99)</f>
         <v>12</v>
       </c>
@@ -13375,7 +13387,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U100" s="113">
+      <c r="U100" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T100="NorthBound","&gt;=","&lt;=")&amp;Y100,Variables!$M$2:$M$19,IF(T100="NorthBound","&lt;=","&gt;=")&amp;Z100)</f>
         <v>12</v>
       </c>
@@ -13487,7 +13499,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U101" s="113">
+      <c r="U101" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T101="NorthBound","&gt;=","&lt;=")&amp;Y101,Variables!$M$2:$M$19,IF(T101="NorthBound","&lt;=","&gt;=")&amp;Z101)</f>
         <v>12</v>
       </c>
@@ -13599,7 +13611,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U102" s="113">
+      <c r="U102" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T102="NorthBound","&gt;=","&lt;=")&amp;Y102,Variables!$M$2:$M$19,IF(T102="NorthBound","&lt;=","&gt;=")&amp;Z102)</f>
         <v>12</v>
       </c>
@@ -13627,13 +13639,13 @@
         <f t="shared" si="40"/>
         <v>23.278199999999998</v>
       </c>
-      <c r="AB102" s="98" t="e">
+      <c r="AB102" s="98">
         <f>VLOOKUP(A102,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC102" s="94" t="e">
+        <v>58783</v>
+      </c>
+      <c r="AC102" s="94" t="str">
         <f>VLOOKUP(A102,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>GRADE CROSSING</v>
       </c>
       <c r="AD102" s="95" t="str">
         <f t="shared" si="41"/>
@@ -13711,7 +13723,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U103" s="113">
+      <c r="U103" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T103="NorthBound","&gt;=","&lt;=")&amp;Y103,Variables!$M$2:$M$19,IF(T103="NorthBound","&lt;=","&gt;=")&amp;Z103)</f>
         <v>12</v>
       </c>
@@ -13823,7 +13835,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U104" s="113">
+      <c r="U104" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T104="NorthBound","&gt;=","&lt;=")&amp;Y104,Variables!$M$2:$M$19,IF(T104="NorthBound","&lt;=","&gt;=")&amp;Z104)</f>
         <v>12</v>
       </c>
@@ -13935,7 +13947,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U105" s="113">
+      <c r="U105" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T105="NorthBound","&gt;=","&lt;=")&amp;Y105,Variables!$M$2:$M$19,IF(T105="NorthBound","&lt;=","&gt;=")&amp;Z105)</f>
         <v>12</v>
       </c>
@@ -14047,7 +14059,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U106" s="113">
+      <c r="U106" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T106="NorthBound","&gt;=","&lt;=")&amp;Y106,Variables!$M$2:$M$19,IF(T106="NorthBound","&lt;=","&gt;=")&amp;Z106)</f>
         <v>12</v>
       </c>
@@ -14159,7 +14171,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U107" s="113">
+      <c r="U107" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T107="NorthBound","&gt;=","&lt;=")&amp;Y107,Variables!$M$2:$M$19,IF(T107="NorthBound","&lt;=","&gt;=")&amp;Z107)</f>
         <v>12</v>
       </c>
@@ -14271,7 +14283,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U108" s="113">
+      <c r="U108" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T108="NorthBound","&gt;=","&lt;=")&amp;Y108,Variables!$M$2:$M$19,IF(T108="NorthBound","&lt;=","&gt;=")&amp;Z108)</f>
         <v>12</v>
       </c>
@@ -14383,7 +14395,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U109" s="113">
+      <c r="U109" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T109="NorthBound","&gt;=","&lt;=")&amp;Y109,Variables!$M$2:$M$19,IF(T109="NorthBound","&lt;=","&gt;=")&amp;Z109)</f>
         <v>12</v>
       </c>
@@ -14495,7 +14507,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U110" s="113">
+      <c r="U110" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T110="NorthBound","&gt;=","&lt;=")&amp;Y110,Variables!$M$2:$M$19,IF(T110="NorthBound","&lt;=","&gt;=")&amp;Z110)</f>
         <v>12</v>
       </c>
@@ -14607,7 +14619,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U111" s="113">
+      <c r="U111" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T111="NorthBound","&gt;=","&lt;=")&amp;Y111,Variables!$M$2:$M$19,IF(T111="NorthBound","&lt;=","&gt;=")&amp;Z111)</f>
         <v>12</v>
       </c>
@@ -14635,13 +14647,13 @@
         <f t="shared" si="40"/>
         <v>23.282999999999998</v>
       </c>
-      <c r="AB111" s="98" t="e">
+      <c r="AB111" s="98">
         <f>VLOOKUP(A111,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC111" s="94" t="e">
+        <v>119716</v>
+      </c>
+      <c r="AC111" s="94" t="str">
         <f>VLOOKUP(A111,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD111" s="95" t="str">
         <f t="shared" si="41"/>
@@ -14719,7 +14731,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U112" s="113">
+      <c r="U112" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T112="NorthBound","&gt;=","&lt;=")&amp;Y112,Variables!$M$2:$M$19,IF(T112="NorthBound","&lt;=","&gt;=")&amp;Z112)</f>
         <v>12</v>
       </c>
@@ -14831,7 +14843,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U113" s="113">
+      <c r="U113" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T113="NorthBound","&gt;=","&lt;=")&amp;Y113,Variables!$M$2:$M$19,IF(T113="NorthBound","&lt;=","&gt;=")&amp;Z113)</f>
         <v>12</v>
       </c>
@@ -14943,7 +14955,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U114" s="113">
+      <c r="U114" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T114="NorthBound","&gt;=","&lt;=")&amp;Y114,Variables!$M$2:$M$19,IF(T114="NorthBound","&lt;=","&gt;=")&amp;Z114)</f>
         <v>12</v>
       </c>
@@ -15055,7 +15067,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U115" s="113">
+      <c r="U115" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T115="NorthBound","&gt;=","&lt;=")&amp;Y115,Variables!$M$2:$M$19,IF(T115="NorthBound","&lt;=","&gt;=")&amp;Z115)</f>
         <v>12</v>
       </c>
@@ -15167,7 +15179,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U116" s="113">
+      <c r="U116" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T116="NorthBound","&gt;=","&lt;=")&amp;Y116,Variables!$M$2:$M$19,IF(T116="NorthBound","&lt;=","&gt;=")&amp;Z116)</f>
         <v>12</v>
       </c>
@@ -15279,7 +15291,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U117" s="113">
+      <c r="U117" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T117="NorthBound","&gt;=","&lt;=")&amp;Y117,Variables!$M$2:$M$19,IF(T117="NorthBound","&lt;=","&gt;=")&amp;Z117)</f>
         <v>12</v>
       </c>
@@ -15391,7 +15403,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U118" s="113">
+      <c r="U118" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T118="NorthBound","&gt;=","&lt;=")&amp;Y118,Variables!$M$2:$M$19,IF(T118="NorthBound","&lt;=","&gt;=")&amp;Z118)</f>
         <v>12</v>
       </c>
@@ -15503,7 +15515,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U119" s="113">
+      <c r="U119" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T119="NorthBound","&gt;=","&lt;=")&amp;Y119,Variables!$M$2:$M$19,IF(T119="NorthBound","&lt;=","&gt;=")&amp;Z119)</f>
         <v>12</v>
       </c>
@@ -15615,7 +15627,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U120" s="113">
+      <c r="U120" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T120="NorthBound","&gt;=","&lt;=")&amp;Y120,Variables!$M$2:$M$19,IF(T120="NorthBound","&lt;=","&gt;=")&amp;Z120)</f>
         <v>12</v>
       </c>
@@ -15727,7 +15739,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U121" s="113">
+      <c r="U121" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T121="NorthBound","&gt;=","&lt;=")&amp;Y121,Variables!$M$2:$M$19,IF(T121="NorthBound","&lt;=","&gt;=")&amp;Z121)</f>
         <v>12</v>
       </c>
@@ -15755,13 +15767,13 @@
         <f t="shared" si="40"/>
         <v>23.288899999999998</v>
       </c>
-      <c r="AB121" s="98" t="e">
+      <c r="AB121" s="98">
         <f>VLOOKUP(A121,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC121" s="94" t="e">
+        <v>191108</v>
+      </c>
+      <c r="AC121" s="94" t="str">
         <f>VLOOKUP(A121,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD121" s="95" t="str">
         <f t="shared" si="41"/>
@@ -15839,7 +15851,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U122" s="113">
+      <c r="U122" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T122="NorthBound","&gt;=","&lt;=")&amp;Y122,Variables!$M$2:$M$19,IF(T122="NorthBound","&lt;=","&gt;=")&amp;Z122)</f>
         <v>12</v>
       </c>
@@ -15867,13 +15879,13 @@
         <f t="shared" si="40"/>
         <v>23.2897</v>
       </c>
-      <c r="AB122" s="98" t="e">
+      <c r="AB122" s="98">
         <f>VLOOKUP(A122,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC122" s="94" t="e">
+        <v>27333</v>
+      </c>
+      <c r="AC122" s="94" t="str">
         <f>VLOOKUP(A122,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD122" s="95" t="str">
         <f t="shared" si="41"/>
@@ -15951,7 +15963,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U123" s="113">
+      <c r="U123" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T123="NorthBound","&gt;=","&lt;=")&amp;Y123,Variables!$M$2:$M$19,IF(T123="NorthBound","&lt;=","&gt;=")&amp;Z123)</f>
         <v>12</v>
       </c>
@@ -16063,7 +16075,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U124" s="113">
+      <c r="U124" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T124="NorthBound","&gt;=","&lt;=")&amp;Y124,Variables!$M$2:$M$19,IF(T124="NorthBound","&lt;=","&gt;=")&amp;Z124)</f>
         <v>12</v>
       </c>
@@ -16175,7 +16187,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U125" s="113">
+      <c r="U125" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T125="NorthBound","&gt;=","&lt;=")&amp;Y125,Variables!$M$2:$M$19,IF(T125="NorthBound","&lt;=","&gt;=")&amp;Z125)</f>
         <v>12</v>
       </c>
@@ -16287,7 +16299,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U126" s="113">
+      <c r="U126" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T126="NorthBound","&gt;=","&lt;=")&amp;Y126,Variables!$M$2:$M$19,IF(T126="NorthBound","&lt;=","&gt;=")&amp;Z126)</f>
         <v>12</v>
       </c>
@@ -16399,7 +16411,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U127" s="113">
+      <c r="U127" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T127="NorthBound","&gt;=","&lt;=")&amp;Y127,Variables!$M$2:$M$19,IF(T127="NorthBound","&lt;=","&gt;=")&amp;Z127)</f>
         <v>12</v>
       </c>
@@ -16511,7 +16523,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U128" s="113">
+      <c r="U128" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T128="NorthBound","&gt;=","&lt;=")&amp;Y128,Variables!$M$2:$M$19,IF(T128="NorthBound","&lt;=","&gt;=")&amp;Z128)</f>
         <v>12</v>
       </c>
@@ -16623,7 +16635,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U129" s="113">
+      <c r="U129" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T129="NorthBound","&gt;=","&lt;=")&amp;Y129,Variables!$M$2:$M$19,IF(T129="NorthBound","&lt;=","&gt;=")&amp;Z129)</f>
         <v>12</v>
       </c>
@@ -16651,13 +16663,13 @@
         <f t="shared" si="40"/>
         <v>23.286999999999999</v>
       </c>
-      <c r="AB129" s="98" t="e">
+      <c r="AB129" s="98">
         <f>VLOOKUP(A129,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC129" s="94" t="e">
+        <v>1</v>
+      </c>
+      <c r="AC129" s="94" t="str">
         <f>VLOOKUP(A129,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>TRACK WARRANT AUTHORITY</v>
       </c>
       <c r="AD129" s="95" t="str">
         <f t="shared" si="41"/>
@@ -16735,7 +16747,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U130" s="113">
+      <c r="U130" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T130="NorthBound","&gt;=","&lt;=")&amp;Y130,Variables!$M$2:$M$19,IF(T130="NorthBound","&lt;=","&gt;=")&amp;Z130)</f>
         <v>12</v>
       </c>
@@ -16847,7 +16859,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U131" s="113">
+      <c r="U131" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T131="NorthBound","&gt;=","&lt;=")&amp;Y131,Variables!$M$2:$M$19,IF(T131="NorthBound","&lt;=","&gt;=")&amp;Z131)</f>
         <v>12</v>
       </c>
@@ -16959,7 +16971,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U132" s="113">
+      <c r="U132" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T132="NorthBound","&gt;=","&lt;=")&amp;Y132,Variables!$M$2:$M$19,IF(T132="NorthBound","&lt;=","&gt;=")&amp;Z132)</f>
         <v>12</v>
       </c>
@@ -17071,7 +17083,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U133" s="113">
+      <c r="U133" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T133="NorthBound","&gt;=","&lt;=")&amp;Y133,Variables!$M$2:$M$19,IF(T133="NorthBound","&lt;=","&gt;=")&amp;Z133)</f>
         <v>12</v>
       </c>
@@ -17183,7 +17195,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U134" s="113">
+      <c r="U134" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T134="NorthBound","&gt;=","&lt;=")&amp;Y134,Variables!$M$2:$M$19,IF(T134="NorthBound","&lt;=","&gt;=")&amp;Z134)</f>
         <v>12</v>
       </c>
@@ -17295,7 +17307,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U135" s="113">
+      <c r="U135" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T135="NorthBound","&gt;=","&lt;=")&amp;Y135,Variables!$M$2:$M$19,IF(T135="NorthBound","&lt;=","&gt;=")&amp;Z135)</f>
         <v>12</v>
       </c>
@@ -17407,7 +17419,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U136" s="113">
+      <c r="U136" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T136="NorthBound","&gt;=","&lt;=")&amp;Y136,Variables!$M$2:$M$19,IF(T136="NorthBound","&lt;=","&gt;=")&amp;Z136)</f>
         <v>12</v>
       </c>
@@ -17519,7 +17531,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U137" s="113">
+      <c r="U137" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T137="NorthBound","&gt;=","&lt;=")&amp;Y137,Variables!$M$2:$M$19,IF(T137="NorthBound","&lt;=","&gt;=")&amp;Z137)</f>
         <v>12</v>
       </c>
@@ -17631,7 +17643,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U138" s="113">
+      <c r="U138" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T138="NorthBound","&gt;=","&lt;=")&amp;Y138,Variables!$M$2:$M$19,IF(T138="NorthBound","&lt;=","&gt;=")&amp;Z138)</f>
         <v>12</v>
       </c>
@@ -17743,7 +17755,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U139" s="113">
+      <c r="U139" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T139="NorthBound","&gt;=","&lt;=")&amp;Y139,Variables!$M$2:$M$19,IF(T139="NorthBound","&lt;=","&gt;=")&amp;Z139)</f>
         <v>12</v>
       </c>
@@ -17855,7 +17867,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U140" s="113">
+      <c r="U140" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T140="NorthBound","&gt;=","&lt;=")&amp;Y140,Variables!$M$2:$M$19,IF(T140="NorthBound","&lt;=","&gt;=")&amp;Z140)</f>
         <v>12</v>
       </c>
@@ -17967,7 +17979,7 @@
         <f t="shared" ref="T141:T159" si="49">IF(ISEVEN(LEFT(A141,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
-      <c r="U141" s="113">
+      <c r="U141" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T141="NorthBound","&gt;=","&lt;=")&amp;Y141,Variables!$M$2:$M$19,IF(T141="NorthBound","&lt;=","&gt;=")&amp;Z141)</f>
         <v>12</v>
       </c>
@@ -17995,13 +18007,13 @@
         <f t="shared" ref="AA141:AA159" si="55">ABS(Z141-Y141)</f>
         <v>23.286000000000001</v>
       </c>
-      <c r="AB141" s="98" t="e">
+      <c r="AB141" s="98">
         <f>VLOOKUP(A141,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC141" s="94" t="e">
+        <v>127562</v>
+      </c>
+      <c r="AC141" s="94" t="str">
         <f>VLOOKUP(A141,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>GRADE CROSSING</v>
       </c>
       <c r="AD141" s="95" t="str">
         <f t="shared" ref="AD141:AD159" si="56">IF(LEN(A141)=6,"0"&amp;A141,A141)</f>
@@ -18080,7 +18092,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U142" s="113">
+      <c r="U142" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T142="NorthBound","&gt;=","&lt;=")&amp;Y142,Variables!$M$2:$M$19,IF(T142="NorthBound","&lt;=","&gt;=")&amp;Z142)</f>
         <v>12</v>
       </c>
@@ -18108,13 +18120,13 @@
         <f t="shared" si="55"/>
         <v>23.281699999999997</v>
       </c>
-      <c r="AB142" s="98" t="e">
+      <c r="AB142" s="98">
         <f>VLOOKUP(A142,Enforcements!$C$7:$J$23,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC142" s="94" t="e">
+        <v>17100</v>
+      </c>
+      <c r="AC142" s="94" t="str">
         <f>VLOOKUP(A142,Enforcements!$C$7:$E$23,3,0)</f>
-        <v>#N/A</v>
+        <v>SIGNAL</v>
       </c>
       <c r="AD142" s="95" t="str">
         <f t="shared" si="56"/>
@@ -18194,7 +18206,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U143" s="113">
+      <c r="U143" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T143="NorthBound","&gt;=","&lt;=")&amp;Y143,Variables!$M$2:$M$19,IF(T143="NorthBound","&lt;=","&gt;=")&amp;Z143)</f>
         <v>12</v>
       </c>
@@ -18306,7 +18318,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U144" s="113">
+      <c r="U144" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T144="NorthBound","&gt;=","&lt;=")&amp;Y144,Variables!$M$2:$M$19,IF(T144="NorthBound","&lt;=","&gt;=")&amp;Z144)</f>
         <v>12</v>
       </c>
@@ -18418,7 +18430,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U145" s="113">
+      <c r="U145" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T145="NorthBound","&gt;=","&lt;=")&amp;Y145,Variables!$M$2:$M$19,IF(T145="NorthBound","&lt;=","&gt;=")&amp;Z145)</f>
         <v>12</v>
       </c>
@@ -18530,7 +18542,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U146" s="113">
+      <c r="U146" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T146="NorthBound","&gt;=","&lt;=")&amp;Y146,Variables!$M$2:$M$19,IF(T146="NorthBound","&lt;=","&gt;=")&amp;Z146)</f>
         <v>12</v>
       </c>
@@ -18642,7 +18654,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U147" s="113">
+      <c r="U147" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T147="NorthBound","&gt;=","&lt;=")&amp;Y147,Variables!$M$2:$M$19,IF(T147="NorthBound","&lt;=","&gt;=")&amp;Z147)</f>
         <v>12</v>
       </c>
@@ -18754,7 +18766,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U148" s="113">
+      <c r="U148" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T148="NorthBound","&gt;=","&lt;=")&amp;Y148,Variables!$M$2:$M$19,IF(T148="NorthBound","&lt;=","&gt;=")&amp;Z148)</f>
         <v>12</v>
       </c>
@@ -18866,7 +18878,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U149" s="113">
+      <c r="U149" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T149="NorthBound","&gt;=","&lt;=")&amp;Y149,Variables!$M$2:$M$19,IF(T149="NorthBound","&lt;=","&gt;=")&amp;Z149)</f>
         <v>12</v>
       </c>
@@ -18978,7 +18990,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U150" s="113">
+      <c r="U150" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T150="NorthBound","&gt;=","&lt;=")&amp;Y150,Variables!$M$2:$M$19,IF(T150="NorthBound","&lt;=","&gt;=")&amp;Z150)</f>
         <v>12</v>
       </c>
@@ -19090,7 +19102,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U151" s="113">
+      <c r="U151" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T151="NorthBound","&gt;=","&lt;=")&amp;Y151,Variables!$M$2:$M$19,IF(T151="NorthBound","&lt;=","&gt;=")&amp;Z151)</f>
         <v>12</v>
       </c>
@@ -19202,7 +19214,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U152" s="113">
+      <c r="U152" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T152="NorthBound","&gt;=","&lt;=")&amp;Y152,Variables!$M$2:$M$19,IF(T152="NorthBound","&lt;=","&gt;=")&amp;Z152)</f>
         <v>12</v>
       </c>
@@ -19314,7 +19326,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U153" s="113">
+      <c r="U153" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T153="NorthBound","&gt;=","&lt;=")&amp;Y153,Variables!$M$2:$M$19,IF(T153="NorthBound","&lt;=","&gt;=")&amp;Z153)</f>
         <v>12</v>
       </c>
@@ -19426,7 +19438,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U154" s="113">
+      <c r="U154" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T154="NorthBound","&gt;=","&lt;=")&amp;Y154,Variables!$M$2:$M$19,IF(T154="NorthBound","&lt;=","&gt;=")&amp;Z154)</f>
         <v>12</v>
       </c>
@@ -19538,7 +19550,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U155" s="113">
+      <c r="U155" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T155="NorthBound","&gt;=","&lt;=")&amp;Y155,Variables!$M$2:$M$19,IF(T155="NorthBound","&lt;=","&gt;=")&amp;Z155)</f>
         <v>12</v>
       </c>
@@ -19650,7 +19662,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U156" s="113">
+      <c r="U156" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T156="NorthBound","&gt;=","&lt;=")&amp;Y156,Variables!$M$2:$M$19,IF(T156="NorthBound","&lt;=","&gt;=")&amp;Z156)</f>
         <v>12</v>
       </c>
@@ -19762,7 +19774,7 @@
         <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
-      <c r="U157" s="113">
+      <c r="U157" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T157="NorthBound","&gt;=","&lt;=")&amp;Y157,Variables!$M$2:$M$19,IF(T157="NorthBound","&lt;=","&gt;=")&amp;Z157)</f>
         <v>12</v>
       </c>
@@ -19876,7 +19888,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U158" s="113">
+      <c r="U158" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T158="NorthBound","&gt;=","&lt;=")&amp;Y158,Variables!$M$2:$M$19,IF(T158="NorthBound","&lt;=","&gt;=")&amp;Z158)</f>
         <v>0</v>
       </c>
@@ -19982,7 +19994,7 @@
         <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
-      <c r="U159" s="113">
+      <c r="U159" s="109">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T159="NorthBound","&gt;=","&lt;=")&amp;Y159,Variables!$M$2:$M$19,IF(T159="NorthBound","&lt;=","&gt;=")&amp;Z159)</f>
         <v>0</v>
       </c>
@@ -20048,27 +20060,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S159">
-    <cfRule type="expression" dxfId="5" priority="52">
+    <cfRule type="expression" dxfId="7" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S159">
-    <cfRule type="expression" dxfId="4" priority="51">
+    <cfRule type="expression" dxfId="6" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20098,10 +20110,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U63"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20127,7 +20140,7 @@
     <col min="20" max="20" width="18.42578125" style="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -20137,7 +20150,7 @@
       <c r="Q1" s="33"/>
       <c r="T1" s="71"/>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -20146,15 +20159,15 @@
       <c r="K2" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="119">
+      <c r="L2" s="111"/>
+      <c r="M2" s="114">
         <f>COUNTIF($M$7:$M$672,"=Y")</f>
         <v>5</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="T2" s="71"/>
     </row>
-    <row r="3" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -20163,15 +20176,15 @@
       <c r="K3" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="120">
+      <c r="L3" s="112"/>
+      <c r="M3" s="115">
         <f>COUNTA($M$7:$M$672)-M2</f>
         <v>52</v>
       </c>
       <c r="Q3" s="33"/>
       <c r="T3" s="71"/>
     </row>
-    <row r="4" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -20181,28 +20194,28 @@
       <c r="Q4" s="33"/>
       <c r="T4" s="71"/>
     </row>
-    <row r="5" spans="1:21" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="str">
+    <row r="5" spans="1:22" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="124" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-07-09</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
       <c r="N5" s="14"/>
       <c r="Q5" s="32"/>
       <c r="T5" s="72"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
@@ -20236,7 +20249,7 @@
       <c r="K6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="113" t="s">
         <v>48</v>
       </c>
       <c r="M6" s="83" t="s">
@@ -20263,180 +20276,195 @@
       <c r="U6" s="88" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="73" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
-        <v>42560.181527777779</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>149</v>
+        <v>42560.623113425929</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>51</v>
+      <c r="E7" s="67" t="s">
+        <v>302</v>
       </c>
       <c r="F7" s="69">
         <v>0</v>
       </c>
       <c r="G7" s="69">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="H7" s="69">
-        <v>233295</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>52</v>
+        <v>58562</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>303</v>
       </c>
       <c r="J7" s="69">
-        <v>233491</v>
+        <v>58783</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L7" s="105" t="str">
         <f>VLOOKUP(C7,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STURGEON</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>627</v>
+      </c>
       <c r="O7" s="43"/>
       <c r="P7" s="76" t="str">
         <f>VLOOKUP(C7,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
       </c>
       <c r="Q7" s="74" t="str">
         <f>VLOOKUP(C7,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 03:42:09-0600',mode:absolute,to:'2016-07-09 04:22:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:35:29-0600',mode:absolute,to:'2016-07-09 15:21:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R7" s="75" t="str">
         <f>VLOOKUP(C7,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S7" s="9" t="str">
         <f>MID(B7,13,4)</f>
-        <v>4040</v>
+        <v>4031</v>
       </c>
       <c r="T7" s="50">
         <f>A7+6/24</f>
-        <v>42560.431527777779</v>
+        <v>42560.873113425929</v>
       </c>
       <c r="U7" s="73" t="str">
         <f>IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="73" t="str">
+        <f>IF(AND(E7="TRACK WARRANT AUTHORITY",G7&lt;10),"OMIT","KEEP")</f>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
-        <v>42560.222777777781</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>42560.8905787037</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="70">
-        <v>0</v>
-      </c>
-      <c r="G8" s="70">
-        <v>5</v>
-      </c>
-      <c r="H8" s="70">
-        <v>233312</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="70">
-        <v>233491</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="E8" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="69">
+        <v>400</v>
+      </c>
+      <c r="G8" s="69">
+        <v>595</v>
+      </c>
+      <c r="H8" s="69">
+        <v>125262</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="69">
+        <v>127562</v>
+      </c>
+      <c r="K8" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L8" s="105" t="str">
         <f>VLOOKUP(C8,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MALAVE</v>
+        <v>ADANE</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="73"/>
+      <c r="N8" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="O8" s="43"/>
       <c r="P8" s="76" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q8" s="74" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 04:39:58-0600',mode:absolute,to:'2016-07-09 05:21:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 20:51:12-0600',mode:absolute,to:'2016-07-09 21:37:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R8" s="75" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S8" s="9" t="str">
         <f>MID(B8,13,4)</f>
-        <v>4020</v>
+        <v>4007</v>
       </c>
       <c r="T8" s="50">
         <f>A8+6/24</f>
-        <v>42560.472777777781</v>
+        <v>42561.1405787037</v>
       </c>
       <c r="U8" s="73" t="str">
         <f>IF(VALUE(LEFT(C8,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
-        <v>42560.264270833337</v>
+      <c r="V8" s="73" t="str">
+        <f t="shared" ref="V8:V63" si="0">IF(AND(E8="TRACK WARRANT AUTHORITY",G8&lt;10),"OMIT","KEEP")</f>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>42560.623981481483</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>51</v>
+      <c r="E9" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="69">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G9" s="69">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="H9" s="69">
-        <v>233316</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>52</v>
+        <v>17467</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="J9" s="69">
-        <v>233491</v>
+        <v>15167</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="105" t="str">
         <f>VLOOKUP(C9,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STURGEON</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>108</v>
@@ -20445,274 +20473,286 @@
       <c r="O9" s="43"/>
       <c r="P9" s="76" t="str">
         <f>VLOOKUP(C9,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q9" s="74" t="str">
         <f>VLOOKUP(C9,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 05:30:46-0600',mode:absolute,to:'2016-07-09 06:21:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:58-0600',mode:absolute,to:'2016-07-09 15:04:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R9" s="75" t="str">
         <f>VLOOKUP(C9,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S9" s="9" t="str">
         <f>MID(B9,13,4)</f>
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="T9" s="50">
         <f>A9+6/24</f>
-        <v>42560.514270833337</v>
+        <v>42560.873981481483</v>
       </c>
       <c r="U9" s="73" t="str">
         <f>IF(VALUE(LEFT(C9,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
-        <v>42560.274930555555</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>76</v>
+        <v>42560.395092592589</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>306</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>51</v>
+      <c r="E10" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="69">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G10" s="69">
-        <v>8</v>
+        <v>452</v>
       </c>
       <c r="H10" s="69">
-        <v>233325</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>52</v>
+        <v>17582</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="J10" s="69">
-        <v>233491</v>
+        <v>15167</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="105" t="str">
         <f>VLOOKUP(C10,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>YORK</v>
+        <v>SANTIZO</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N10" s="10"/>
-      <c r="O10" s="73"/>
+      <c r="O10" s="43"/>
       <c r="P10" s="76" t="str">
         <f>VLOOKUP(C10,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
       </c>
       <c r="Q10" s="74" t="str">
         <f>VLOOKUP(C10,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 05:54:30-0600',mode:absolute,to:'2016-07-09 06:37:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:38:15-0600',mode:absolute,to:'2016-07-09 09:35:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R10" s="75" t="str">
         <f>VLOOKUP(C10,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S10" s="9" t="str">
         <f>MID(B10,13,4)</f>
-        <v>4031</v>
+        <v>4015</v>
       </c>
       <c r="T10" s="50">
         <f>A10+6/24</f>
-        <v>42560.524930555555</v>
+        <v>42560.645092592589</v>
       </c>
       <c r="U10" s="73" t="str">
         <f>IF(VALUE(LEFT(C10,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
-        <v>42560.279641203706</v>
+      <c r="V10" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>42560.520601851851</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="69">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G11" s="69">
-        <v>642</v>
+        <v>457</v>
       </c>
       <c r="H11" s="69">
-        <v>58809</v>
+        <v>17787</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J11" s="69">
-        <v>63995</v>
+        <v>15167</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" s="105" t="str">
         <f>VLOOKUP(C11,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MALAVE</v>
+        <v>STARKS</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="43"/>
       <c r="P11" s="76" t="str">
         <f>VLOOKUP(C11,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
       </c>
       <c r="Q11" s="74" t="str">
         <f>VLOOKUP(C11,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 06:25:29-0600',mode:absolute,to:'2016-07-09 06:46:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:51:32-0600',mode:absolute,to:'2016-07-09 12:35:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R11" s="75" t="str">
         <f>VLOOKUP(C11,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>MID(B11,13,4)</f>
-        <v>4020</v>
+        <v>4017</v>
       </c>
       <c r="T11" s="50">
         <f>A11+6/24</f>
-        <v>42560.529641203706</v>
+        <v>42560.770601851851</v>
       </c>
       <c r="U11" s="73" t="str">
         <f>IF(VALUE(LEFT(C11,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81">
-        <v>42560.313287037039</v>
+        <v>42560.724270833336</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G12" s="69">
-        <v>484</v>
+        <v>153</v>
       </c>
       <c r="H12" s="69">
-        <v>194512</v>
+        <v>27280</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J12" s="69">
-        <v>191723</v>
+        <v>27333</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="105" t="str">
         <f>VLOOKUP(C12,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MALAVE</v>
+        <v>NEWELL</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>629</v>
-      </c>
+      <c r="N12" s="10"/>
       <c r="O12" s="43"/>
       <c r="P12" s="76" t="str">
         <f>VLOOKUP(C12,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q12" s="74" t="str">
         <f>VLOOKUP(C12,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 07:22:41-0600',mode:absolute,to:'2016-07-09 08:09:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:07:15-0600',mode:absolute,to:'2016-07-09 17:52:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R12" s="75" t="str">
         <f>VLOOKUP(C12,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>MID(B12,13,4)</f>
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="T12" s="50">
         <f>A12+6/24</f>
-        <v>42560.563287037039</v>
+        <v>42560.974270833336</v>
       </c>
       <c r="U12" s="73" t="str">
         <f>IF(VALUE(LEFT(C12,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81">
-        <v>42560.347314814811</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>76</v>
+        <v>42560.52784722222</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>51</v>
+      <c r="E13" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G13" s="69">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="H13" s="69">
-        <v>233303</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>52</v>
+        <v>30715</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="J13" s="69">
-        <v>233491</v>
+        <v>30562</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="105" t="str">
         <f>VLOOKUP(C13,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>YORK</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>108</v>
@@ -20721,204 +20761,214 @@
       <c r="O13" s="43"/>
       <c r="P13" s="76" t="str">
         <f>VLOOKUP(C13,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10</v>
       </c>
       <c r="Q13" s="74" t="str">
         <f>VLOOKUP(C13,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 07:33:10-0600',mode:absolute,to:'2016-07-09 08:21:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:55:10-0600',mode:absolute,to:'2016-07-09 12:49:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R13" s="75" t="str">
         <f>VLOOKUP(C13,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>MID(B13,13,4)</f>
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="T13" s="50">
         <f>A13+6/24</f>
-        <v>42560.597314814811</v>
+        <v>42560.77784722222</v>
       </c>
       <c r="U13" s="73" t="str">
         <f>IF(VALUE(LEFT(C13,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81">
-        <v>42560.383958333332</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>72</v>
+        <v>42560.51771990741</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>105</v>
+      <c r="E14" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="69">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G14" s="69">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="H14" s="69">
-        <v>231560</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>106</v>
+        <v>30777</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="J14" s="69">
-        <v>231147</v>
+        <v>30562</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="105" t="str">
         <f>VLOOKUP(C14,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MALAVE</v>
+        <v>STARKS</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N14" s="10"/>
       <c r="O14" s="43"/>
       <c r="P14" s="76" t="str">
         <f>VLOOKUP(C14,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
       </c>
       <c r="Q14" s="74" t="str">
         <f>VLOOKUP(C14,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:07:24-0600',mode:absolute,to:'2016-07-09 09:50:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:51:32-0600',mode:absolute,to:'2016-07-09 12:35:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R14" s="75" t="str">
         <f>VLOOKUP(C14,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>MID(B14,13,4)</f>
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="T14" s="50">
         <f>A14+6/24</f>
-        <v>42560.633958333332</v>
+        <v>42560.76771990741</v>
       </c>
       <c r="U14" s="73" t="str">
         <f>IF(VALUE(LEFT(C14,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81">
-        <v>42560.395092592589</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>306</v>
+        <v>42560.707280092596</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="67" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="69">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G15" s="69">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H15" s="69">
-        <v>17582</v>
-      </c>
-      <c r="I15" s="43" t="s">
+        <v>120450</v>
+      </c>
+      <c r="I15" s="67" t="s">
         <v>58</v>
       </c>
       <c r="J15" s="69">
-        <v>15167</v>
+        <v>119716</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L15" s="105" t="str">
         <f>VLOOKUP(C15,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>SANTIZO</v>
+        <v>STEWART</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="43"/>
+      <c r="O15" s="73"/>
       <c r="P15" s="76" t="str">
         <f>VLOOKUP(C15,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
       </c>
       <c r="Q15" s="74" t="str">
         <f>VLOOKUP(C15,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:38:15-0600',mode:absolute,to:'2016-07-09 09:35:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:32:02-0600',mode:absolute,to:'2016-07-09 17:25:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R15" s="75" t="str">
         <f>VLOOKUP(C15,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S15" s="9" t="str">
         <f>MID(B15,13,4)</f>
-        <v>4015</v>
+        <v>4028</v>
       </c>
       <c r="T15" s="50">
         <f>A15+6/24</f>
-        <v>42560.645092592589</v>
+        <v>42560.957280092596</v>
       </c>
       <c r="U15" s="73" t="str">
         <f>IF(VALUE(LEFT(C15,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81">
-        <v>42560.399236111109</v>
+        <v>42560.75240740741</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>51</v>
+      <c r="E16" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="69">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G16" s="69">
-        <v>3</v>
+        <v>441</v>
       </c>
       <c r="H16" s="69">
-        <v>231344</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>52</v>
+        <v>192108</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="J16" s="69">
-        <v>233491</v>
+        <v>191108</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" s="105" t="str">
         <f>VLOOKUP(C16,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STARKS</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>108</v>
@@ -20927,242 +20977,264 @@
       <c r="O16" s="43"/>
       <c r="P16" s="76" t="str">
         <f>VLOOKUP(C16,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q16" s="74" t="str">
         <f>VLOOKUP(C16,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:54:09-0600',mode:absolute,to:'2016-07-09 09:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:51:29-0600',mode:absolute,to:'2016-07-09 18:36:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R16" s="75" t="str">
         <f>VLOOKUP(C16,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>MID(B16,13,4)</f>
-        <v>4040</v>
+        <v>4019</v>
       </c>
       <c r="T16" s="50">
         <f>A16+6/24</f>
-        <v>42560.649236111109</v>
+        <v>42561.00240740741</v>
       </c>
       <c r="U16" s="73" t="str">
         <f>IF(VALUE(LEFT(C16,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
-        <v>42560.40116898148</v>
+        <v>42560.93650462963</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F17" s="69">
         <v>0</v>
       </c>
       <c r="G17" s="69">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="H17" s="69">
-        <v>233149</v>
+        <v>18296</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J17" s="69">
-        <v>233491</v>
+        <v>17100</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" s="105" t="str">
         <f>VLOOKUP(C17,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STARKS</v>
+        <v>ADANE</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="73"/>
+        <v>107</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="O17" s="43"/>
       <c r="P17" s="76" t="str">
         <f>VLOOKUP(C17,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
       </c>
       <c r="Q17" s="74" t="str">
         <f>VLOOKUP(C17,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:54:09-0600',mode:absolute,to:'2016-07-09 09:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R17" s="75" t="str">
         <f>VLOOKUP(C17,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>MID(B17,13,4)</f>
-        <v>4040</v>
+        <v>4008</v>
       </c>
       <c r="T17" s="50">
         <f>A17+6/24</f>
-        <v>42560.65116898148</v>
+        <v>42561.18650462963</v>
       </c>
       <c r="U17" s="73" t="str">
         <f>IF(VALUE(LEFT(C17,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
-        <v>42560.409155092595</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>72</v>
+      <c r="V17" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
+        <v>42560.279641203706</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>51</v>
+      <c r="E18" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="F18" s="69">
         <v>0</v>
       </c>
       <c r="G18" s="69">
-        <v>6</v>
+        <v>642</v>
       </c>
       <c r="H18" s="69">
-        <v>127</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>52</v>
+        <v>58809</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="J18" s="69">
-        <v>1</v>
+        <v>63995</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="105" t="str">
         <f>VLOOKUP(C18,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
         <v>MALAVE</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="O18" s="43"/>
       <c r="P18" s="76" t="str">
         <f>VLOOKUP(C18,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
       </c>
       <c r="Q18" s="74" t="str">
         <f>VLOOKUP(C18,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:07:24-0600',mode:absolute,to:'2016-07-09 09:50:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 06:25:29-0600',mode:absolute,to:'2016-07-09 06:46:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R18" s="75" t="str">
         <f>VLOOKUP(C18,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>MID(B18,13,4)</f>
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="T18" s="50">
         <f>A18+6/24</f>
-        <v>42560.659155092595</v>
+        <v>42560.529641203706</v>
       </c>
       <c r="U18" s="73" t="str">
         <f>IF(VALUE(LEFT(C18,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81">
-        <v>42560.420428240737</v>
+        <v>42560.441435185188</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F19" s="69">
         <v>0</v>
       </c>
       <c r="G19" s="69">
-        <v>7</v>
+        <v>561</v>
       </c>
       <c r="H19" s="69">
-        <v>233304</v>
+        <v>122160</v>
       </c>
       <c r="I19" s="67" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J19" s="69">
-        <v>233491</v>
+        <v>126585</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="105" t="str">
         <f>VLOOKUP(C19,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>YORK</v>
+        <v>NEWELL</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>625</v>
+      </c>
       <c r="O19" s="73"/>
       <c r="P19" s="76" t="str">
         <f>VLOOKUP(C19,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q19" s="74" t="str">
         <f>VLOOKUP(C19,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:17:42-0600',mode:absolute,to:'2016-07-09 10:06:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:50:21-0600',mode:absolute,to:'2016-07-09 11:04:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R19" s="75" t="str">
         <f>VLOOKUP(C19,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S19" s="9" t="str">
         <f>MID(B19,13,4)</f>
-        <v>4031</v>
+        <v>4007</v>
       </c>
       <c r="T19" s="50">
         <f>A19+6/24</f>
-        <v>42560.670428240737</v>
+        <v>42560.691435185188</v>
       </c>
       <c r="U19" s="73" t="str">
         <f>IF(VALUE(LEFT(C19,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81">
-        <v>42560.441435185188</v>
+        <v>42560.467060185183</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>50</v>
@@ -21174,89 +21246,93 @@
         <v>0</v>
       </c>
       <c r="G20" s="69">
-        <v>561</v>
+        <v>695</v>
       </c>
       <c r="H20" s="69">
-        <v>122160</v>
+        <v>161873</v>
       </c>
       <c r="I20" s="67" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="69">
-        <v>126585</v>
+        <v>162254</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="105" t="str">
         <f>VLOOKUP(C20,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>BRANNON</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>107</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>625</v>
+        <v>134</v>
       </c>
       <c r="O20" s="73"/>
       <c r="P20" s="76" t="str">
         <f>VLOOKUP(C20,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
       </c>
       <c r="Q20" s="74" t="str">
         <f>VLOOKUP(C20,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:50:21-0600',mode:absolute,to:'2016-07-09 11:04:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:35:41-0600',mode:absolute,to:'2016-07-09 11:14:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R20" s="75" t="str">
         <f>VLOOKUP(C20,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>MID(B20,13,4)</f>
-        <v>4007</v>
+        <v>4040</v>
       </c>
       <c r="T20" s="50">
         <f>A20+6/24</f>
-        <v>42560.691435185188</v>
+        <v>42560.717060185183</v>
       </c>
       <c r="U20" s="73" t="str">
         <f>IF(VALUE(LEFT(C20,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81">
-        <v>42560.441851851851</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>73</v>
+        <v>42560.313287037039</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>51</v>
+      <c r="E21" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="F21" s="69">
         <v>0</v>
       </c>
       <c r="G21" s="69">
-        <v>6</v>
+        <v>484</v>
       </c>
       <c r="H21" s="69">
-        <v>233329</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>52</v>
+        <v>194512</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="J21" s="69">
-        <v>233491</v>
+        <v>191723</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="105" t="str">
         <f>VLOOKUP(C21,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
@@ -21265,180 +21341,194 @@
       <c r="M21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>629</v>
+      </c>
       <c r="O21" s="43"/>
       <c r="P21" s="76" t="str">
         <f>VLOOKUP(C21,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q21" s="74" t="str">
         <f>VLOOKUP(C21,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:56:52-0600',mode:absolute,to:'2016-07-09 10:37:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 07:22:41-0600',mode:absolute,to:'2016-07-09 08:09:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R21" s="75" t="str">
         <f>VLOOKUP(C21,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S21" s="9" t="str">
         <f>MID(B21,13,4)</f>
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="T21" s="50">
         <f>A21+6/24</f>
-        <v>42560.691851851851</v>
+        <v>42560.563287037039</v>
       </c>
       <c r="U21" s="73" t="str">
         <f>IF(VALUE(LEFT(C21,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81">
-        <v>42560.460659722223</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>147</v>
+        <v>42560.383958333332</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F22" s="69">
         <v>0</v>
       </c>
       <c r="G22" s="69">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="H22" s="69">
-        <v>233347</v>
+        <v>231560</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J22" s="69">
-        <v>233491</v>
+        <v>231147</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" s="105" t="str">
         <f>VLOOKUP(C22,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>MALAVE</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="73"/>
+        <v>107</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="43"/>
       <c r="P22" s="76" t="str">
         <f>VLOOKUP(C22,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q22" s="74" t="str">
         <f>VLOOKUP(C22,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:50:21-0600',mode:absolute,to:'2016-07-09 11:04:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:07:24-0600',mode:absolute,to:'2016-07-09 09:50:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R22" s="75" t="str">
         <f>VLOOKUP(C22,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>MID(B22,13,4)</f>
-        <v>4007</v>
+        <v>4019</v>
       </c>
       <c r="T22" s="50">
         <f>A22+6/24</f>
-        <v>42560.710659722223</v>
+        <v>42560.633958333332</v>
       </c>
       <c r="U22" s="73" t="str">
         <f>IF(VALUE(LEFT(C22,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81">
-        <v>42560.467060185183</v>
+        <v>42560.816608796296</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F23" s="69">
         <v>0</v>
       </c>
       <c r="G23" s="69">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="H23" s="69">
-        <v>161873</v>
+        <v>105</v>
       </c>
       <c r="I23" s="67" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J23" s="69">
-        <v>162254</v>
+        <v>1</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L23" s="105" t="str">
         <f>VLOOKUP(C23,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>BRANNON</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="43"/>
       <c r="P23" s="76" t="str">
         <f>VLOOKUP(C23,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
       </c>
       <c r="Q23" s="74" t="str">
         <f>VLOOKUP(C23,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:35:41-0600',mode:absolute,to:'2016-07-09 11:14:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 18:50:59-0600',mode:absolute,to:'2016-07-09 19:37:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R23" s="75" t="str">
         <f>VLOOKUP(C23,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160710*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S23" s="9" t="str">
         <f>MID(B23,13,4)</f>
-        <v>4040</v>
+        <v>4017</v>
       </c>
       <c r="T23" s="50">
         <f>A23+6/24</f>
-        <v>42560.717060185183</v>
+        <v>42561.066608796296</v>
       </c>
       <c r="U23" s="73" t="str">
         <f>IF(VALUE(LEFT(C23,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81">
-        <v>42560.484293981484</v>
+        <v>42560.511921296296</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>50</v>
@@ -21453,7 +21543,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="69">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>52</v>
@@ -21466,7 +21556,7 @@
       </c>
       <c r="L24" s="105" t="str">
         <f>VLOOKUP(C24,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MALAVE</v>
+        <v>BRANNON</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>108</v>
@@ -21475,38 +21565,42 @@
       <c r="O24" s="43"/>
       <c r="P24" s="76" t="str">
         <f>VLOOKUP(C24,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10</v>
       </c>
       <c r="Q24" s="74" t="str">
         <f>VLOOKUP(C24,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:53:14-0600',mode:absolute,to:'2016-07-09 11:38:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:37:58-0600',mode:absolute,to:'2016-07-09 12:18:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R24" s="75" t="str">
         <f>VLOOKUP(C24,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>MID(B24,13,4)</f>
-        <v>4019</v>
+        <v>4039</v>
       </c>
       <c r="T24" s="50">
         <f>A24+6/24</f>
-        <v>42560.734293981484</v>
+        <v>42560.761921296296</v>
       </c>
       <c r="U24" s="73" t="str">
         <f>IF(VALUE(LEFT(C24,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81">
-        <v>42560.493217592593</v>
+        <v>42560.484293981484</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>50</v>
@@ -21518,63 +21612,67 @@
         <v>0</v>
       </c>
       <c r="G25" s="69">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="H25" s="69">
-        <v>233234</v>
+        <v>114</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J25" s="69">
-        <v>233491</v>
+        <v>1</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L25" s="105" t="str">
         <f>VLOOKUP(C25,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MAYBERRY</v>
+        <v>MALAVE</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="73"/>
+      <c r="O25" s="43"/>
       <c r="P25" s="76" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q25" s="74" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:09:41-0600',mode:absolute,to:'2016-07-09 11:51:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:53:14-0600',mode:absolute,to:'2016-07-09 11:38:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R25" s="75" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S25" s="9" t="str">
         <f>MID(B25,13,4)</f>
-        <v>4031</v>
+        <v>4019</v>
       </c>
       <c r="T25" s="50">
         <f>A25+6/24</f>
-        <v>42560.743217592593</v>
+        <v>42560.734293981484</v>
       </c>
       <c r="U25" s="73" t="str">
         <f>IF(VALUE(LEFT(C25,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81">
-        <v>42560.501481481479</v>
+        <v>42560.596354166664</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>50</v>
@@ -21586,10 +21684,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="69">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H26" s="69">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="I26" s="67" t="s">
         <v>52</v>
@@ -21602,64 +21700,68 @@
       </c>
       <c r="L26" s="105" t="str">
         <f>VLOOKUP(C26,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>GEBRETEKLE</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="43"/>
+      <c r="O26" s="73"/>
       <c r="P26" s="76" t="str">
         <f>VLOOKUP(C26,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
       </c>
       <c r="Q26" s="74" t="str">
         <f>VLOOKUP(C26,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:20:37-0600',mode:absolute,to:'2016-07-09 12:03:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:32:25-0600',mode:absolute,to:'2016-07-09 14:20:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R26" s="75" t="str">
         <f>VLOOKUP(C26,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>MID(B26,13,4)</f>
-        <v>4028</v>
+        <v>4017</v>
       </c>
       <c r="T26" s="50">
         <f>A26+6/24</f>
-        <v>42560.751481481479</v>
+        <v>42560.846354166664</v>
       </c>
       <c r="U26" s="73" t="str">
         <f>IF(VALUE(LEFT(C26,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81">
-        <v>42560.511921296296</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>171</v>
+        <v>42560.627523148149</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="69">
         <v>0</v>
       </c>
       <c r="G27" s="69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="69">
-        <v>109</v>
-      </c>
-      <c r="I27" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J27" s="69">
@@ -21670,7 +21772,7 @@
       </c>
       <c r="L27" s="105" t="str">
         <f>VLOOKUP(C27,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>BRANNON</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>108</v>
@@ -21679,66 +21781,70 @@
       <c r="O27" s="43"/>
       <c r="P27" s="76" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q27" s="74" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:37:58-0600',mode:absolute,to:'2016-07-09 12:18:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:58-0600',mode:absolute,to:'2016-07-09 15:04:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R27" s="75" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S27" s="9" t="str">
         <f>MID(B27,13,4)</f>
-        <v>4039</v>
+        <v>4019</v>
       </c>
       <c r="T27" s="50">
         <f>A27+6/24</f>
-        <v>42560.761921296296</v>
+        <v>42560.877523148149</v>
       </c>
       <c r="U27" s="73" t="str">
         <f>IF(VALUE(LEFT(C27,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81">
-        <v>42560.51771990741</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>75</v>
+        <v>42560.636990740742</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>143</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>57</v>
+      <c r="E28" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F28" s="69">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G28" s="69">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="H28" s="69">
-        <v>30777</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="69">
-        <v>30562</v>
+        <v>1</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L28" s="105" t="str">
         <f>VLOOKUP(C28,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STARKS</v>
+        <v>NEWELL</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>108</v>
@@ -21747,66 +21853,70 @@
       <c r="O28" s="43"/>
       <c r="P28" s="76" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
       </c>
       <c r="Q28" s="74" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:51:32-0600',mode:absolute,to:'2016-07-09 12:35:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:22:55-0600',mode:absolute,to:'2016-07-09 15:18:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R28" s="75" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S28" s="9" t="str">
         <f>MID(B28,13,4)</f>
-        <v>4017</v>
+        <v>4008</v>
       </c>
       <c r="T28" s="50">
         <f>A28+6/24</f>
-        <v>42560.76771990741</v>
+        <v>42560.886990740742</v>
       </c>
       <c r="U28" s="73" t="str">
         <f>IF(VALUE(LEFT(C28,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81">
-        <v>42560.520601851851</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>75</v>
+        <v>42560.657673611109</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>57</v>
+      <c r="E29" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F29" s="69">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G29" s="69">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="H29" s="69">
-        <v>17787</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J29" s="69">
-        <v>15167</v>
+        <v>1</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L29" s="105" t="str">
         <f>VLOOKUP(C29,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STARKS</v>
+        <v>BRANNON</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>108</v>
@@ -21815,66 +21925,70 @@
       <c r="O29" s="43"/>
       <c r="P29" s="76" t="str">
         <f>VLOOKUP(C29,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10</v>
       </c>
       <c r="Q29" s="74" t="str">
         <f>VLOOKUP(C29,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:51:32-0600',mode:absolute,to:'2016-07-09 12:35:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:05:01-0600',mode:absolute,to:'2016-07-09 15:48:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R29" s="75" t="str">
         <f>VLOOKUP(C29,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S29" s="9" t="str">
         <f>MID(B29,13,4)</f>
-        <v>4017</v>
+        <v>4039</v>
       </c>
       <c r="T29" s="50">
         <f>A29+6/24</f>
-        <v>42560.770601851851</v>
+        <v>42560.907673611109</v>
       </c>
       <c r="U29" s="73" t="str">
         <f>IF(VALUE(LEFT(C29,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>42560.52784722222</v>
+      <c r="V29" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81">
+        <v>42560.744050925925</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F30" s="69">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G30" s="69">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="H30" s="69">
-        <v>30715</v>
+        <v>116</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J30" s="69">
-        <v>30562</v>
+        <v>1</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L30" s="105" t="str">
         <f>VLOOKUP(C30,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MAYBERRY</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>108</v>
@@ -21883,38 +21997,42 @@
       <c r="O30" s="43"/>
       <c r="P30" s="76" t="str">
         <f>VLOOKUP(C30,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
       </c>
       <c r="Q30" s="74" t="str">
         <f>VLOOKUP(C30,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:55:10-0600',mode:absolute,to:'2016-07-09 12:49:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:03:22-0600',mode:absolute,to:'2016-07-09 17:52:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R30" s="75" t="str">
         <f>VLOOKUP(C30,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>MID(B30,13,4)</f>
-        <v>4032</v>
+        <v>4017</v>
       </c>
       <c r="T30" s="50">
         <f>A30+6/24</f>
-        <v>42560.77784722222</v>
+        <v>42560.994050925925</v>
       </c>
       <c r="U30" s="73" t="str">
         <f>IF(VALUE(LEFT(C30,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
-        <v>42560.543946759259</v>
+      <c r="V30" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
+        <v>42560.764560185184</v>
       </c>
       <c r="B31" s="67" t="s">
         <v>306</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>50</v>
@@ -21926,10 +22044,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H31" s="69">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I31" s="67" t="s">
         <v>52</v>
@@ -21942,7 +22060,7 @@
       </c>
       <c r="L31" s="105" t="str">
         <f>VLOOKUP(C31,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NELSON</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>108</v>
@@ -21955,11 +22073,11 @@
       </c>
       <c r="Q31" s="74" t="str">
         <f>VLOOKUP(C31,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 12:17:14-0600',mode:absolute,to:'2016-07-09 13:04:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:34:25-0600',mode:absolute,to:'2016-07-09 18:22:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R31" s="75" t="str">
         <f>VLOOKUP(C31,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S31" s="9" t="str">
         <f>MID(B31,13,4)</f>
@@ -21967,22 +22085,26 @@
       </c>
       <c r="T31" s="50">
         <f>A31+6/24</f>
-        <v>42560.793946759259</v>
+        <v>42561.014560185184</v>
       </c>
       <c r="U31" s="73" t="str">
         <f>IF(VALUE(LEFT(C31,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
-        <v>42560.57508101852</v>
+      <c r="V31" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81">
+        <v>42560.898333333331</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>50</v>
@@ -21994,10 +22116,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="69">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="H32" s="69">
-        <v>447</v>
+        <v>125</v>
       </c>
       <c r="I32" s="67" t="s">
         <v>52</v>
@@ -22010,64 +22132,68 @@
       </c>
       <c r="L32" s="105" t="str">
         <f>VLOOKUP(C32,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STEWART</v>
+        <v>BRUDER</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N32" s="10"/>
-      <c r="O32" s="73"/>
+      <c r="O32" s="43"/>
       <c r="P32" s="76" t="str">
         <f>VLOOKUP(C32,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4026/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4026/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-10</v>
       </c>
       <c r="Q32" s="74" t="str">
         <f>VLOOKUP(C32,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:04:16-0600',mode:absolute,to:'2016-07-09 13:49:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 20:52:40-0600',mode:absolute,to:'2016-07-09 21:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R32" s="75" t="str">
         <f>VLOOKUP(C32,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S32" s="9" t="str">
         <f>MID(B32,13,4)</f>
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="T32" s="50">
         <f>A32+6/24</f>
-        <v>42560.82508101852</v>
+        <v>42561.148333333331</v>
       </c>
       <c r="U32" s="73" t="str">
         <f>IF(VALUE(LEFT(C32,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>42560.575509259259</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>124</v>
+      <c r="V32" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
+        <v>42560.409155092595</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="43" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="69">
         <v>0</v>
       </c>
       <c r="G33" s="69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" s="69">
-        <v>314</v>
-      </c>
-      <c r="I33" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="43" t="s">
         <v>52</v>
       </c>
       <c r="J33" s="69">
@@ -22078,47 +22204,51 @@
       </c>
       <c r="L33" s="105" t="str">
         <f>VLOOKUP(C33,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STEWART</v>
+        <v>MALAVE</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N33" s="10"/>
-      <c r="O33" s="73"/>
+      <c r="O33" s="43"/>
       <c r="P33" s="76" t="str">
         <f>VLOOKUP(C33,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
       </c>
       <c r="Q33" s="74" t="str">
         <f>VLOOKUP(C33,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:04:16-0600',mode:absolute,to:'2016-07-09 13:49:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:07:24-0600',mode:absolute,to:'2016-07-09 09:50:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R33" s="75" t="str">
         <f>VLOOKUP(C33,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S33" s="9" t="str">
         <f>MID(B33,13,4)</f>
-        <v>4028</v>
+        <v>4019</v>
       </c>
       <c r="T33" s="50">
         <f>A33+6/24</f>
-        <v>42560.825509259259</v>
+        <v>42560.659155092595</v>
       </c>
       <c r="U33" s="73" t="str">
         <f>IF(VALUE(LEFT(C33,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <v>42560.58734953704</v>
+      <c r="V33" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81">
+        <v>42560.543946759259</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>50</v>
@@ -22130,63 +22260,67 @@
         <v>0</v>
       </c>
       <c r="G34" s="69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="69">
-        <v>233380</v>
+        <v>127</v>
       </c>
       <c r="I34" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J34" s="69">
-        <v>233491</v>
+        <v>1</v>
       </c>
       <c r="K34" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L34" s="105" t="str">
         <f>VLOOKUP(C34,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>LOCKLEAR</v>
+        <v>NELSON</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N34" s="10"/>
-      <c r="O34" s="73"/>
+      <c r="O34" s="43"/>
       <c r="P34" s="76" t="str">
         <f>VLOOKUP(C34,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
       </c>
       <c r="Q34" s="74" t="str">
         <f>VLOOKUP(C34,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:26:25-0600',mode:absolute,to:'2016-07-09 14:06:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 12:17:14-0600',mode:absolute,to:'2016-07-09 13:04:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R34" s="75" t="str">
         <f>VLOOKUP(C34,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S34" s="9" t="str">
         <f>MID(B34,13,4)</f>
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="T34" s="50">
         <f>A34+6/24</f>
-        <v>42560.83734953704</v>
+        <v>42560.793946759259</v>
       </c>
       <c r="U34" s="73" t="str">
         <f>IF(VALUE(LEFT(C34,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
-        <v>42560.596354166664</v>
+      <c r="V34" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="81">
+        <v>42560.501481481479</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>50</v>
@@ -22198,10 +22332,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="69">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H35" s="69">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="I35" s="67" t="s">
         <v>52</v>
@@ -22214,132 +22348,140 @@
       </c>
       <c r="L35" s="105" t="str">
         <f>VLOOKUP(C35,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>WEBSTER</v>
+        <v>GEBRETEKLE</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N35" s="10"/>
-      <c r="O35" s="73"/>
+      <c r="O35" s="43"/>
       <c r="P35" s="76" t="str">
         <f>VLOOKUP(C35,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
       </c>
       <c r="Q35" s="74" t="str">
         <f>VLOOKUP(C35,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:32:25-0600',mode:absolute,to:'2016-07-09 14:20:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:20:37-0600',mode:absolute,to:'2016-07-09 12:03:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R35" s="75" t="str">
         <f>VLOOKUP(C35,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S35" s="9" t="str">
         <f>MID(B35,13,4)</f>
-        <v>4017</v>
+        <v>4028</v>
       </c>
       <c r="T35" s="50">
         <f>A35+6/24</f>
-        <v>42560.846354166664</v>
+        <v>42560.751481481479</v>
       </c>
       <c r="U35" s="73" t="str">
         <f>IF(VALUE(LEFT(C35,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
-        <v>42560.597442129627</v>
-      </c>
-      <c r="B36" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="106" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" s="106" t="s">
+      <c r="V35" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="81">
+        <v>42560.940104166664</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="131" t="s">
+      <c r="E36" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="107">
-        <v>0</v>
-      </c>
-      <c r="G36" s="107">
-        <v>9</v>
-      </c>
-      <c r="H36" s="107">
-        <v>233368</v>
-      </c>
-      <c r="I36" s="131" t="s">
+      <c r="F36" s="69">
+        <v>0</v>
+      </c>
+      <c r="G36" s="69">
+        <v>44</v>
+      </c>
+      <c r="H36" s="69">
+        <v>174</v>
+      </c>
+      <c r="I36" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="107">
-        <v>233491</v>
-      </c>
-      <c r="K36" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="118" t="str">
+      <c r="J36" s="69">
+        <v>1</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="105" t="str">
         <f>VLOOKUP(C36,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
-      </c>
-      <c r="M36" s="109" t="s">
+        <v>ADANE</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N36" s="108"/>
+      <c r="N36" s="10"/>
       <c r="O36" s="88"/>
-      <c r="P36" s="110" t="str">
+      <c r="P36" s="106" t="str">
         <f>VLOOKUP(C36,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
       </c>
       <c r="Q36" s="74" t="str">
         <f>VLOOKUP(C36,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:35:20-0600',mode:absolute,to:'2016-07-09 14:21:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R36" s="75" t="str">
         <f>VLOOKUP(C36,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S36" s="9" t="str">
         <f>MID(B36,13,4)</f>
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="T36" s="50">
         <f>A36+6/24</f>
-        <v>42560.847442129627</v>
+        <v>42561.190104166664</v>
       </c>
       <c r="U36" s="73" t="str">
         <f>IF(VALUE(LEFT(C36,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="50">
-        <v>42560.606377314813</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>67</v>
+      <c r="V36" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81">
+        <v>42560.689745370371</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>306</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="69">
         <v>0</v>
       </c>
       <c r="G37" s="69">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="H37" s="69">
-        <v>212</v>
-      </c>
-      <c r="I37" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J37" s="69">
@@ -22350,75 +22492,79 @@
       </c>
       <c r="L37" s="105" t="str">
         <f>VLOOKUP(C37,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MAYBERRY</v>
+        <v>DE LA ROSA</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N37" s="10"/>
-      <c r="O37" s="43"/>
+      <c r="O37" s="73"/>
       <c r="P37" s="76" t="str">
         <f>VLOOKUP(C37,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
       </c>
       <c r="Q37" s="74" t="str">
         <f>VLOOKUP(C37,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:42:28-0600',mode:absolute,to:'2016-07-09 14:34:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:48:18-0600',mode:absolute,to:'2016-07-09 16:34:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R37" s="75" t="str">
         <f>VLOOKUP(C37,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S37" s="9" t="str">
         <f>MID(B37,13,4)</f>
-        <v>4032</v>
+        <v>4015</v>
       </c>
       <c r="T37" s="50">
         <f>A37+6/24</f>
-        <v>42560.856377314813</v>
+        <v>42560.939745370371</v>
       </c>
       <c r="U37" s="73" t="str">
         <f>IF(VALUE(LEFT(C37,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="50">
-        <v>42560.618287037039</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>149</v>
+      <c r="V37" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="81">
+        <v>42560.606377314813</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="69">
         <v>0</v>
       </c>
       <c r="G38" s="69">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H38" s="69">
-        <v>233330</v>
-      </c>
-      <c r="I38" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J38" s="69">
-        <v>233491</v>
+        <v>1</v>
       </c>
       <c r="K38" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L38" s="105" t="str">
         <f>VLOOKUP(C38,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>BRANNON</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>108</v>
@@ -22427,176 +22573,186 @@
       <c r="O38" s="43"/>
       <c r="P38" s="76" t="str">
         <f>VLOOKUP(C38,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4032/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4032\2016-07-10</v>
       </c>
       <c r="Q38" s="74" t="str">
         <f>VLOOKUP(C38,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:05:26-0600',mode:absolute,to:'2016-07-09 14:51:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:42:28-0600',mode:absolute,to:'2016-07-09 14:34:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R38" s="75" t="str">
         <f>VLOOKUP(C38,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S38" s="9" t="str">
         <f>MID(B38,13,4)</f>
-        <v>4040</v>
+        <v>4032</v>
       </c>
       <c r="T38" s="50">
         <f>A38+6/24</f>
-        <v>42560.868287037039</v>
+        <v>42560.856377314813</v>
       </c>
       <c r="U38" s="73" t="str">
         <f>IF(VALUE(LEFT(C38,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
-        <v>42560.623113425929</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>76</v>
+      <c r="V38" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="81">
+        <v>42560.575509259259</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>302</v>
+      <c r="E39" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F39" s="69">
         <v>0</v>
       </c>
       <c r="G39" s="69">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="H39" s="69">
-        <v>58562</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>303</v>
+        <v>314</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J39" s="69">
-        <v>58783</v>
+        <v>1</v>
       </c>
       <c r="K39" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L39" s="105" t="str">
         <f>VLOOKUP(C39,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>MAYBERRY</v>
+        <v>STEWART</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="O39" s="43"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="73"/>
       <c r="P39" s="76" t="str">
         <f>VLOOKUP(C39,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
       </c>
       <c r="Q39" s="74" t="str">
         <f>VLOOKUP(C39,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:35:29-0600',mode:absolute,to:'2016-07-09 15:21:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:04:16-0600',mode:absolute,to:'2016-07-09 13:49:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R39" s="75" t="str">
         <f>VLOOKUP(C39,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S39" s="9" t="str">
         <f>MID(B39,13,4)</f>
-        <v>4031</v>
+        <v>4028</v>
       </c>
       <c r="T39" s="50">
         <f>A39+6/24</f>
-        <v>42560.873113425929</v>
+        <v>42560.825509259259</v>
       </c>
       <c r="U39" s="73" t="str">
         <f>IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
-        <v>42560.623981481483</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>72</v>
+      <c r="V39" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81">
+        <v>42561.002071759256</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>306</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>57</v>
+      <c r="E40" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F40" s="69">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G40" s="69">
-        <v>460</v>
+        <v>4</v>
       </c>
       <c r="H40" s="69">
-        <v>17467</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>58</v>
+        <v>349</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J40" s="69">
-        <v>15167</v>
+        <v>1</v>
       </c>
       <c r="K40" s="43" t="s">
         <v>54</v>
       </c>
       <c r="L40" s="105" t="str">
         <f>VLOOKUP(C40,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>LOCKLEAR</v>
+        <v>GRASTON</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N40" s="10"/>
-      <c r="O40" s="43"/>
+      <c r="O40" s="73"/>
       <c r="P40" s="76" t="str">
         <f>VLOOKUP(C40,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
       </c>
       <c r="Q40" s="74" t="str">
         <f>VLOOKUP(C40,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:58-0600',mode:absolute,to:'2016-07-09 15:04:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 23:23:07-0600',mode:absolute,to:'2016-07-10 00:04:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R40" s="75" t="str">
         <f>VLOOKUP(C40,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S40" s="9" t="str">
         <f>MID(B40,13,4)</f>
-        <v>4019</v>
+        <v>4015</v>
       </c>
       <c r="T40" s="50">
         <f>A40+6/24</f>
-        <v>42560.873981481483</v>
+        <v>42561.252071759256</v>
       </c>
       <c r="U40" s="73" t="str">
         <f>IF(VALUE(LEFT(C40,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
-        <v>42560.627523148149</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>72</v>
+      <c r="V40" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="81">
+        <v>42560.939699074072</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>50</v>
@@ -22608,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="69">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="H41" s="69">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="I41" s="43" t="s">
         <v>52</v>
@@ -22624,7 +22780,7 @@
       </c>
       <c r="L41" s="105" t="str">
         <f>VLOOKUP(C41,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>LOCKLEAR</v>
+        <v>ADANE</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>108</v>
@@ -22633,111 +22789,119 @@
       <c r="O41" s="43"/>
       <c r="P41" s="76" t="str">
         <f>VLOOKUP(C41,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
       </c>
       <c r="Q41" s="74" t="str">
         <f>VLOOKUP(C41,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:58-0600',mode:absolute,to:'2016-07-09 15:04:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R41" s="75" t="str">
         <f>VLOOKUP(C41,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S41" s="9" t="str">
         <f>MID(B41,13,4)</f>
-        <v>4019</v>
+        <v>4008</v>
       </c>
       <c r="T41" s="50">
         <f>A41+6/24</f>
-        <v>42560.877523148149</v>
+        <v>42561.189699074072</v>
       </c>
       <c r="U41" s="73" t="str">
         <f>IF(VALUE(LEFT(C41,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
-        <v>42560.629583333335</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>74</v>
+      <c r="V41" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="81">
+        <v>42560.57508101852</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="69">
         <v>0</v>
       </c>
       <c r="G42" s="69">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="H42" s="69">
-        <v>233346</v>
-      </c>
-      <c r="I42" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="I42" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J42" s="69">
-        <v>233491</v>
+        <v>1</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L42" s="105" t="str">
         <f>VLOOKUP(C42,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>WEBSTER</v>
+        <v>STEWART</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N42" s="10"/>
-      <c r="O42" s="43"/>
+      <c r="O42" s="73"/>
       <c r="P42" s="76" t="str">
         <f>VLOOKUP(C42,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
       </c>
       <c r="Q42" s="74" t="str">
         <f>VLOOKUP(C42,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:02-0600',mode:absolute,to:'2016-07-09 15:07:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:04:16-0600',mode:absolute,to:'2016-07-09 13:49:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R42" s="75" t="str">
         <f>VLOOKUP(C42,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S42" s="9" t="str">
         <f>MID(B42,13,4)</f>
-        <v>4018</v>
+        <v>4028</v>
       </c>
       <c r="T42" s="50">
         <f>A42+6/24</f>
-        <v>42560.879583333335</v>
+        <v>42560.82508101852</v>
       </c>
       <c r="U42" s="73" t="str">
         <f>IF(VALUE(LEFT(C42,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
-        <v>42560.636990740742</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>143</v>
+      <c r="V42" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="81">
+        <v>42560.732812499999</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>73</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F43" s="69">
@@ -22747,20 +22911,20 @@
         <v>6</v>
       </c>
       <c r="H43" s="69">
-        <v>116</v>
-      </c>
-      <c r="I43" s="43" t="s">
+        <v>231318</v>
+      </c>
+      <c r="I43" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" s="105" t="str">
         <f>VLOOKUP(C43,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>108</v>
@@ -22769,38 +22933,42 @@
       <c r="O43" s="43"/>
       <c r="P43" s="76" t="str">
         <f>VLOOKUP(C43,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
       </c>
       <c r="Q43" s="74" t="str">
         <f>VLOOKUP(C43,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:22:55-0600',mode:absolute,to:'2016-07-09 15:18:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:54:35-0600',mode:absolute,to:'2016-07-09 17:38:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R43" s="75" t="str">
         <f>VLOOKUP(C43,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S43" s="9" t="str">
         <f>MID(B43,13,4)</f>
-        <v>4008</v>
+        <v>4020</v>
       </c>
       <c r="T43" s="50">
         <f>A43+6/24</f>
-        <v>42560.886990740742</v>
+        <v>42560.982812499999</v>
       </c>
       <c r="U43" s="73" t="str">
         <f>IF(VALUE(LEFT(C43,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
-        <v>42560.657673611109</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>171</v>
+      <c r="V43" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="81">
+        <v>42560.399236111109</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>50</v>
@@ -22812,23 +22980,23 @@
         <v>0</v>
       </c>
       <c r="G44" s="69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="69">
-        <v>116</v>
+        <v>231344</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>52</v>
       </c>
       <c r="J44" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" s="105" t="str">
         <f>VLOOKUP(C44,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>BRANNON</v>
+        <v>STARKS</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>108</v>
@@ -22837,55 +23005,59 @@
       <c r="O44" s="43"/>
       <c r="P44" s="76" t="str">
         <f>VLOOKUP(C44,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4039/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4039\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
       </c>
       <c r="Q44" s="74" t="str">
         <f>VLOOKUP(C44,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:05:01-0600',mode:absolute,to:'2016-07-09 15:48:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:54:09-0600',mode:absolute,to:'2016-07-09 09:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R44" s="75" t="str">
         <f>VLOOKUP(C44,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S44" s="9" t="str">
         <f>MID(B44,13,4)</f>
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="T44" s="50">
         <f>A44+6/24</f>
-        <v>42560.907673611109</v>
+        <v>42560.649236111109</v>
       </c>
       <c r="U44" s="73" t="str">
         <f>IF(VALUE(LEFT(C44,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="50">
-        <v>42560.670706018522</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>147</v>
+      <c r="V44" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="81">
+        <v>42560.40116898148</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="69">
         <v>0</v>
       </c>
       <c r="G45" s="69">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="H45" s="69">
-        <v>233357</v>
-      </c>
-      <c r="I45" s="43" t="s">
+        <v>233149</v>
+      </c>
+      <c r="I45" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J45" s="69">
@@ -22896,75 +23068,79 @@
       </c>
       <c r="L45" s="105" t="str">
         <f>VLOOKUP(C45,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>STARKS</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N45" s="10"/>
-      <c r="O45" s="43"/>
+      <c r="O45" s="73"/>
       <c r="P45" s="76" t="str">
         <f>VLOOKUP(C45,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
       </c>
       <c r="Q45" s="74" t="str">
         <f>VLOOKUP(C45,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:20:10-0600',mode:absolute,to:'2016-07-09 16:06:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 08:54:09-0600',mode:absolute,to:'2016-07-09 09:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R45" s="75" t="str">
         <f>VLOOKUP(C45,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S45" s="9" t="str">
         <f>MID(B45,13,4)</f>
-        <v>4007</v>
+        <v>4040</v>
       </c>
       <c r="T45" s="50">
         <f>A45+6/24</f>
-        <v>42560.920706018522</v>
+        <v>42560.65116898148</v>
       </c>
       <c r="U45" s="73" t="str">
         <f>IF(VALUE(LEFT(C45,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="50">
-        <v>42560.689745370371</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="V45" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="81">
+        <v>42561.066736111112</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="70">
-        <v>0</v>
-      </c>
-      <c r="G46" s="70">
-        <v>7</v>
-      </c>
-      <c r="H46" s="70">
-        <v>183</v>
-      </c>
-      <c r="I46" s="68" t="s">
+      <c r="F46" s="69">
+        <v>0</v>
+      </c>
+      <c r="G46" s="69">
+        <v>80</v>
+      </c>
+      <c r="H46" s="69">
+        <v>233203</v>
+      </c>
+      <c r="I46" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="70">
-        <v>1</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>54</v>
+      <c r="J46" s="69">
+        <v>233491</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="L46" s="105" t="str">
         <f>VLOOKUP(C46,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>DE LA ROSA</v>
+        <v>ADANE</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>108</v>
@@ -22973,38 +23149,42 @@
       <c r="O46" s="73"/>
       <c r="P46" s="76" t="str">
         <f>VLOOKUP(C46,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-11/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-11 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-11</v>
       </c>
       <c r="Q46" s="74" t="str">
         <f>VLOOKUP(C46,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:48:18-0600',mode:absolute,to:'2016-07-09 16:34:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-10 00:54:23-0600',mode:absolute,to:'2016-07-10 01:37:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R46" s="75" t="str">
         <f>VLOOKUP(C46,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S46" s="9" t="str">
         <f>MID(B46,13,4)</f>
-        <v>4015</v>
+        <v>4007</v>
       </c>
       <c r="T46" s="50">
         <f>A46+6/24</f>
-        <v>42560.939745370371</v>
+        <v>42561.316736111112</v>
       </c>
       <c r="U46" s="73" t="str">
         <f>IF(VALUE(LEFT(C46,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="50">
-        <v>42560.701481481483</v>
+      <c r="V46" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="81">
+        <v>42560.493217592593</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>50</v>
@@ -23016,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="69">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="H47" s="69">
-        <v>233334</v>
+        <v>233234</v>
       </c>
       <c r="I47" s="67" t="s">
         <v>52</v>
@@ -23032,7 +23212,7 @@
       </c>
       <c r="L47" s="105" t="str">
         <f>VLOOKUP(C47,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>WEBSTER</v>
+        <v>MAYBERRY</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>108</v>
@@ -23041,134 +23221,142 @@
       <c r="O47" s="73"/>
       <c r="P47" s="76" t="str">
         <f>VLOOKUP(C47,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
       </c>
       <c r="Q47" s="74" t="str">
         <f>VLOOKUP(C47,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:09:31-0600',mode:absolute,to:'2016-07-09 16:51:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 11:09:41-0600',mode:absolute,to:'2016-07-09 11:51:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R47" s="75" t="str">
         <f>VLOOKUP(C47,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S47" s="9" t="str">
         <f>MID(B47,13,4)</f>
-        <v>4018</v>
+        <v>4031</v>
       </c>
       <c r="T47" s="50">
         <f>A47+6/24</f>
-        <v>42560.951481481483</v>
+        <v>42560.743217592593</v>
       </c>
       <c r="U47" s="73" t="str">
         <f>IF(VALUE(LEFT(C47,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="50">
-        <v>42560.707280092596</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>124</v>
+      <c r="V47" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81">
+        <v>42560.181527777779</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="67" t="s">
-        <v>57</v>
+      <c r="E48" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="F48" s="69">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G48" s="69">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="H48" s="69">
-        <v>120450</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>58</v>
+        <v>233295</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="J48" s="69">
-        <v>119716</v>
+        <v>233491</v>
       </c>
       <c r="K48" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L48" s="105" t="str">
         <f>VLOOKUP(C48,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>STEWART</v>
+        <v>STURGEON</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N48" s="10"/>
-      <c r="O48" s="73"/>
+      <c r="O48" s="43"/>
       <c r="P48" s="76" t="str">
         <f>VLOOKUP(C48,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
       </c>
       <c r="Q48" s="74" t="str">
         <f>VLOOKUP(C48,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:32:02-0600',mode:absolute,to:'2016-07-09 17:25:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 03:42:09-0600',mode:absolute,to:'2016-07-09 04:22:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R48" s="75" t="str">
         <f>VLOOKUP(C48,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S48" s="9" t="str">
         <f>MID(B48,13,4)</f>
-        <v>4028</v>
+        <v>4040</v>
       </c>
       <c r="T48" s="50">
         <f>A48+6/24</f>
-        <v>42560.957280092596</v>
+        <v>42560.431527777779</v>
       </c>
       <c r="U48" s="73" t="str">
         <f>IF(VALUE(LEFT(C48,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="50">
-        <v>42560.724270833336</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>147</v>
+      <c r="V48" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81">
+        <v>42560.347314814811</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F49" s="69">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="69">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="H49" s="69">
-        <v>27280</v>
+        <v>233303</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J49" s="69">
-        <v>27333</v>
+        <v>233491</v>
       </c>
       <c r="K49" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L49" s="105" t="str">
         <f>VLOOKUP(C49,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>YORK</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>108</v>
@@ -23177,55 +23365,59 @@
       <c r="O49" s="43"/>
       <c r="P49" s="76" t="str">
         <f>VLOOKUP(C49,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
       </c>
       <c r="Q49" s="74" t="str">
         <f>VLOOKUP(C49,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:07:15-0600',mode:absolute,to:'2016-07-09 17:52:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 07:33:10-0600',mode:absolute,to:'2016-07-09 08:21:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R49" s="75" t="str">
         <f>VLOOKUP(C49,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S49" s="9" t="str">
         <f>MID(B49,13,4)</f>
-        <v>4007</v>
+        <v>4031</v>
       </c>
       <c r="T49" s="50">
         <f>A49+6/24</f>
-        <v>42560.974270833336</v>
+        <v>42560.597314814811</v>
       </c>
       <c r="U49" s="73" t="str">
         <f>IF(VALUE(LEFT(C49,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
-        <v>42560.732812499999</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>73</v>
+      <c r="V49" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="81">
+        <v>42560.420428240737</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>76</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F50" s="69">
         <v>0</v>
       </c>
       <c r="G50" s="69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" s="69">
-        <v>231318</v>
-      </c>
-      <c r="I50" s="43" t="s">
+        <v>233304</v>
+      </c>
+      <c r="I50" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J50" s="69">
@@ -23236,115 +23428,123 @@
       </c>
       <c r="L50" s="105" t="str">
         <f>VLOOKUP(C50,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>LOCKLEAR</v>
+        <v>YORK</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N50" s="10"/>
-      <c r="O50" s="43"/>
+      <c r="O50" s="73"/>
       <c r="P50" s="76" t="str">
         <f>VLOOKUP(C50,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
       </c>
       <c r="Q50" s="74" t="str">
         <f>VLOOKUP(C50,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:54:35-0600',mode:absolute,to:'2016-07-09 17:38:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:17:42-0600',mode:absolute,to:'2016-07-09 10:06:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R50" s="75" t="str">
         <f>VLOOKUP(C50,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S50" s="9" t="str">
         <f>MID(B50,13,4)</f>
-        <v>4020</v>
+        <v>4031</v>
       </c>
       <c r="T50" s="50">
         <f>A50+6/24</f>
-        <v>42560.982812499999</v>
+        <v>42560.670428240737</v>
       </c>
       <c r="U50" s="73" t="str">
         <f>IF(VALUE(LEFT(C50,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
-        <v>42560.743703703702</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="D51" s="43" t="s">
+      <c r="V50" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81">
+        <v>42560.222777777781</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="69">
-        <v>0</v>
-      </c>
-      <c r="G51" s="69">
-        <v>7</v>
-      </c>
-      <c r="H51" s="69">
-        <v>233370</v>
-      </c>
-      <c r="I51" s="43" t="s">
+      <c r="F51" s="70">
+        <v>0</v>
+      </c>
+      <c r="G51" s="70">
+        <v>5</v>
+      </c>
+      <c r="H51" s="70">
+        <v>233312</v>
+      </c>
+      <c r="I51" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="69">
+      <c r="J51" s="70">
         <v>233491</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="10" t="s">
         <v>53</v>
       </c>
       <c r="L51" s="105" t="str">
         <f>VLOOKUP(C51,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>NEWELL</v>
+        <v>MALAVE</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N51" s="10"/>
-      <c r="O51" s="43"/>
+      <c r="O51" s="73"/>
       <c r="P51" s="76" t="str">
         <f>VLOOKUP(C51,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
       </c>
       <c r="Q51" s="74" t="str">
         <f>VLOOKUP(C51,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:07:15-0600',mode:absolute,to:'2016-07-09 17:52:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 04:39:58-0600',mode:absolute,to:'2016-07-09 05:21:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R51" s="75" t="str">
         <f>VLOOKUP(C51,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S51" s="9" t="str">
         <f>MID(B51,13,4)</f>
-        <v>4007</v>
+        <v>4020</v>
       </c>
       <c r="T51" s="50">
         <f>A51+6/24</f>
-        <v>42560.993703703702</v>
+        <v>42560.472777777781</v>
       </c>
       <c r="U51" s="73" t="str">
         <f>IF(VALUE(LEFT(C51,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
-        <v>42560.744050925925</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>75</v>
+      <c r="V51" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="82">
+        <v>42560.264270833337</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>50</v>
@@ -23356,23 +23556,23 @@
         <v>0</v>
       </c>
       <c r="G52" s="69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="69">
-        <v>116</v>
+        <v>233316</v>
       </c>
       <c r="I52" s="43" t="s">
         <v>52</v>
       </c>
       <c r="J52" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K52" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L52" s="105" t="str">
         <f>VLOOKUP(C52,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>WEBSTER</v>
+        <v>STURGEON</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>108</v>
@@ -23381,106 +23581,114 @@
       <c r="O52" s="43"/>
       <c r="P52" s="76" t="str">
         <f>VLOOKUP(C52,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
       </c>
       <c r="Q52" s="74" t="str">
         <f>VLOOKUP(C52,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:03:22-0600',mode:absolute,to:'2016-07-09 17:52:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 05:30:46-0600',mode:absolute,to:'2016-07-09 06:21:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R52" s="75" t="str">
         <f>VLOOKUP(C52,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S52" s="9" t="str">
         <f>MID(B52,13,4)</f>
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="T52" s="50">
         <f>A52+6/24</f>
-        <v>42560.994050925925</v>
+        <v>42560.514270833337</v>
       </c>
       <c r="U52" s="73" t="str">
         <f>IF(VALUE(LEFT(C52,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
-        <v>42560.75240740741</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>72</v>
+      <c r="V52" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81">
+        <v>42560.274930555555</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>76</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="43" t="s">
-        <v>57</v>
+      <c r="E53" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F53" s="69">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G53" s="69">
-        <v>441</v>
+        <v>8</v>
       </c>
       <c r="H53" s="69">
-        <v>192108</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>58</v>
+        <v>233325</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J53" s="69">
-        <v>191108</v>
+        <v>233491</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L53" s="105" t="str">
         <f>VLOOKUP(C53,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>LOCKLEAR</v>
+        <v>YORK</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N53" s="10"/>
-      <c r="O53" s="43"/>
+      <c r="O53" s="73"/>
       <c r="P53" s="76" t="str">
         <f>VLOOKUP(C53,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4019/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4019\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4031/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4031\2016-07-10</v>
       </c>
       <c r="Q53" s="74" t="str">
         <f>VLOOKUP(C53,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:51:29-0600',mode:absolute,to:'2016-07-09 18:36:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 05:54:30-0600',mode:absolute,to:'2016-07-09 06:37:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R53" s="75" t="str">
         <f>VLOOKUP(C53,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S53" s="9" t="str">
         <f>MID(B53,13,4)</f>
-        <v>4019</v>
+        <v>4031</v>
       </c>
       <c r="T53" s="50">
         <f>A53+6/24</f>
-        <v>42561.00240740741</v>
+        <v>42560.524930555555</v>
       </c>
       <c r="U53" s="73" t="str">
         <f>IF(VALUE(LEFT(C53,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="50">
-        <v>42560.764560185184</v>
+      <c r="V53" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="81">
+        <v>42560.441851851851</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>50</v>
@@ -23492,23 +23700,23 @@
         <v>0</v>
       </c>
       <c r="G54" s="69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54" s="69">
-        <v>123</v>
+        <v>233329</v>
       </c>
       <c r="I54" s="43" t="s">
         <v>52</v>
       </c>
       <c r="J54" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K54" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L54" s="105" t="str">
         <f>VLOOKUP(C54,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>DE LA ROSA</v>
+        <v>MALAVE</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>108</v>
@@ -23517,55 +23725,59 @@
       <c r="O54" s="43"/>
       <c r="P54" s="76" t="str">
         <f>VLOOKUP(C54,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
       </c>
       <c r="Q54" s="74" t="str">
         <f>VLOOKUP(C54,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:34:25-0600',mode:absolute,to:'2016-07-09 18:22:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 09:56:52-0600',mode:absolute,to:'2016-07-09 10:37:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R54" s="75" t="str">
         <f>VLOOKUP(C54,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S54" s="9" t="str">
         <f>MID(B54,13,4)</f>
-        <v>4015</v>
+        <v>4020</v>
       </c>
       <c r="T54" s="50">
         <f>A54+6/24</f>
-        <v>42561.014560185184</v>
+        <v>42560.691851851851</v>
       </c>
       <c r="U54" s="73" t="str">
         <f>IF(VALUE(LEFT(C54,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="50">
-        <v>42560.775509259256</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>74</v>
+      <c r="V54" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="81">
+        <v>42560.618287037039</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F55" s="69">
         <v>0</v>
       </c>
       <c r="G55" s="69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55" s="69">
-        <v>233342</v>
-      </c>
-      <c r="I55" s="43" t="s">
+        <v>233330</v>
+      </c>
+      <c r="I55" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J55" s="69">
@@ -23576,7 +23788,7 @@
       </c>
       <c r="L55" s="105" t="str">
         <f>VLOOKUP(C55,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>WEBSTER</v>
+        <v>BRANNON</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>108</v>
@@ -23585,62 +23797,66 @@
       <c r="O55" s="43"/>
       <c r="P55" s="76" t="str">
         <f>VLOOKUP(C55,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4040/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4040\2016-07-10</v>
       </c>
       <c r="Q55" s="74" t="str">
         <f>VLOOKUP(C55,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:53:24-0600',mode:absolute,to:'2016-07-09 18:38:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:05:26-0600',mode:absolute,to:'2016-07-09 14:51:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R55" s="75" t="str">
         <f>VLOOKUP(C55,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S55" s="9" t="str">
         <f>MID(B55,13,4)</f>
-        <v>4018</v>
+        <v>4040</v>
       </c>
       <c r="T55" s="50">
         <f>A55+6/24</f>
-        <v>42561.025509259256</v>
+        <v>42560.868287037039</v>
       </c>
       <c r="U55" s="73" t="str">
         <f>IF(VALUE(LEFT(C55,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="50">
-        <v>42560.816608796296</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>75</v>
+      <c r="V55" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81">
+        <v>42560.701481481483</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D56" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="69">
         <v>0</v>
       </c>
       <c r="G56" s="69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H56" s="69">
-        <v>105</v>
-      </c>
-      <c r="I56" s="43" t="s">
+        <v>233334</v>
+      </c>
+      <c r="I56" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J56" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K56" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L56" s="105" t="str">
         <f>VLOOKUP(C56,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
@@ -23650,139 +23866,145 @@
         <v>108</v>
       </c>
       <c r="N56" s="10"/>
-      <c r="O56" s="43"/>
+      <c r="O56" s="73"/>
       <c r="P56" s="76" t="str">
         <f>VLOOKUP(C56,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
       </c>
       <c r="Q56" s="74" t="str">
         <f>VLOOKUP(C56,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 18:50:59-0600',mode:absolute,to:'2016-07-09 19:37:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 16:09:31-0600',mode:absolute,to:'2016-07-09 16:51:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R56" s="75" t="str">
         <f>VLOOKUP(C56,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160710*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S56" s="9" t="str">
         <f>MID(B56,13,4)</f>
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="T56" s="50">
         <f>A56+6/24</f>
-        <v>42561.066608796296</v>
+        <v>42560.951481481483</v>
       </c>
       <c r="U56" s="73" t="str">
         <f>IF(VALUE(LEFT(C56,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="50">
-        <v>42560.8905787037</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>147</v>
+      <c r="V56" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81">
+        <v>42560.775509259256</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="43" t="s">
-        <v>302</v>
+      <c r="E57" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="F57" s="69">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G57" s="69">
-        <v>595</v>
+        <v>7</v>
       </c>
       <c r="H57" s="69">
-        <v>125262</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>303</v>
+        <v>233342</v>
+      </c>
+      <c r="I57" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="J57" s="69">
-        <v>127562</v>
+        <v>233491</v>
       </c>
       <c r="K57" s="43" t="s">
         <v>53</v>
       </c>
       <c r="L57" s="105" t="str">
         <f>VLOOKUP(C57,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>ADANE</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N57" s="10" t="s">
-        <v>627</v>
-      </c>
+      <c r="N57" s="10"/>
       <c r="O57" s="43"/>
       <c r="P57" s="76" t="str">
         <f>VLOOKUP(C57,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
       </c>
       <c r="Q57" s="74" t="str">
         <f>VLOOKUP(C57,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 20:51:12-0600',mode:absolute,to:'2016-07-09 21:37:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:53:24-0600',mode:absolute,to:'2016-07-09 18:38:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R57" s="75" t="str">
         <f>VLOOKUP(C57,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S57" s="9" t="str">
         <f>MID(B57,13,4)</f>
-        <v>4007</v>
+        <v>4018</v>
       </c>
       <c r="T57" s="50">
         <f>A57+6/24</f>
-        <v>42561.1405787037</v>
+        <v>42561.025509259256</v>
       </c>
       <c r="U57" s="73" t="str">
         <f>IF(VALUE(LEFT(C57,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="50">
-        <v>42560.898333333331</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>120</v>
+      <c r="V57" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="81">
+        <v>42560.629583333335</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F58" s="69">
         <v>0</v>
       </c>
       <c r="G58" s="69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="69">
-        <v>125</v>
-      </c>
-      <c r="I58" s="43" t="s">
+        <v>233346</v>
+      </c>
+      <c r="I58" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J58" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K58" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L58" s="105" t="str">
         <f>VLOOKUP(C58,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>BRUDER</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>108</v>
@@ -23791,136 +24013,142 @@
       <c r="O58" s="43"/>
       <c r="P58" s="76" t="str">
         <f>VLOOKUP(C58,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4026/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4026/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4026\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-10</v>
       </c>
       <c r="Q58" s="74" t="str">
         <f>VLOOKUP(C58,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 20:52:40-0600',mode:absolute,to:'2016-07-09 21:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 14:21:02-0600',mode:absolute,to:'2016-07-09 15:07:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R58" s="75" t="str">
         <f>VLOOKUP(C58,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S58" s="9" t="str">
         <f>MID(B58,13,4)</f>
-        <v>4026</v>
+        <v>4018</v>
       </c>
       <c r="T58" s="50">
         <f>A58+6/24</f>
-        <v>42561.148333333331</v>
+        <v>42560.879583333335</v>
       </c>
       <c r="U58" s="73" t="str">
         <f>IF(VALUE(LEFT(C58,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="50">
-        <v>42560.93650462963</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>143</v>
+      <c r="V58" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="81">
+        <v>42560.460659722223</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>147</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F59" s="69">
         <v>0</v>
       </c>
       <c r="G59" s="69">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="H59" s="69">
-        <v>18296</v>
+        <v>233347</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J59" s="69">
-        <v>17100</v>
+        <v>233491</v>
       </c>
       <c r="K59" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L59" s="105" t="str">
         <f>VLOOKUP(C59,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>ADANE</v>
+        <v>NEWELL</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="O59" s="43"/>
+        <v>108</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="73"/>
       <c r="P59" s="76" t="str">
         <f>VLOOKUP(C59,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q59" s="74" t="str">
         <f>VLOOKUP(C59,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 10:50:21-0600',mode:absolute,to:'2016-07-09 11:04:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R59" s="75" t="str">
         <f>VLOOKUP(C59,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S59" s="9" t="str">
         <f>MID(B59,13,4)</f>
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="T59" s="50">
         <f>A59+6/24</f>
-        <v>42561.18650462963</v>
+        <v>42560.710659722223</v>
       </c>
       <c r="U59" s="73" t="str">
         <f>IF(VALUE(LEFT(C59,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
-        <v>42560.939699074072</v>
+        <v>42560.670706018522</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="67" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="69">
         <v>0</v>
       </c>
       <c r="G60" s="69">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="H60" s="69">
-        <v>376</v>
-      </c>
-      <c r="I60" s="43" t="s">
+        <v>233357</v>
+      </c>
+      <c r="I60" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J60" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K60" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L60" s="105" t="str">
         <f>VLOOKUP(C60,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>ADANE</v>
+        <v>NEWELL</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>108</v>
@@ -23929,38 +24157,42 @@
       <c r="O60" s="43"/>
       <c r="P60" s="76" t="str">
         <f>VLOOKUP(C60,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q60" s="74" t="str">
         <f>VLOOKUP(C60,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 15:20:10-0600',mode:absolute,to:'2016-07-09 16:06:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R60" s="75" t="str">
         <f>VLOOKUP(C60,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S60" s="9" t="str">
         <f>MID(B60,13,4)</f>
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="T60" s="50">
         <f>A60+6/24</f>
-        <v>42561.189699074072</v>
+        <v>42560.920706018522</v>
       </c>
       <c r="U60" s="73" t="str">
         <f>IF(VALUE(LEFT(C60,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
-        <v>42560.940104166664</v>
+        <v>42560.597442129627</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>50</v>
@@ -23972,23 +24204,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="69">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H61" s="69">
-        <v>174</v>
+        <v>233368</v>
       </c>
       <c r="I61" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J61" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K61" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L61" s="105" t="str">
         <f>VLOOKUP(C61,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>ADANE</v>
+        <v>NEWELL</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>108</v>
@@ -23997,38 +24229,42 @@
       <c r="O61" s="73"/>
       <c r="P61" s="76" t="str">
         <f>VLOOKUP(C61,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q61" s="74" t="str">
         <f>VLOOKUP(C61,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 21:50:09-0600',mode:absolute,to:'2016-07-09 22:35:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:35:20-0600',mode:absolute,to:'2016-07-09 14:21:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R61" s="75" t="str">
         <f>VLOOKUP(C61,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S61" s="9" t="str">
         <f>MID(B61,13,4)</f>
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="T61" s="50">
         <f>A61+6/24</f>
-        <v>42561.190104166664</v>
+        <v>42560.847442129627</v>
       </c>
       <c r="U61" s="73" t="str">
         <f>IF(VALUE(LEFT(C61,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
-        <v>42561.002071759256</v>
+        <v>42560.743703703702</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>50</v>
@@ -24040,63 +24276,67 @@
         <v>0</v>
       </c>
       <c r="G62" s="69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H62" s="69">
-        <v>349</v>
+        <v>233370</v>
       </c>
       <c r="I62" s="67" t="s">
         <v>52</v>
       </c>
       <c r="J62" s="69">
-        <v>1</v>
+        <v>233491</v>
       </c>
       <c r="K62" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L62" s="105" t="str">
         <f>VLOOKUP(C62,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>GRASTON</v>
+        <v>NEWELL</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>108</v>
       </c>
       <c r="N62" s="10"/>
-      <c r="O62" s="73"/>
+      <c r="O62" s="43"/>
       <c r="P62" s="76" t="str">
         <f>VLOOKUP(C62,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-10</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10</v>
       </c>
       <c r="Q62" s="74" t="str">
         <f>VLOOKUP(C62,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 23:23:07-0600',mode:absolute,to:'2016-07-10 00:04:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 17:07:15-0600',mode:absolute,to:'2016-07-09 17:52:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R62" s="75" t="str">
         <f>VLOOKUP(C62,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S62" s="9" t="str">
         <f>MID(B62,13,4)</f>
-        <v>4015</v>
+        <v>4007</v>
       </c>
       <c r="T62" s="50">
         <f>A62+6/24</f>
-        <v>42561.252071759256</v>
+        <v>42560.993703703702</v>
       </c>
       <c r="U62" s="73" t="str">
         <f>IF(VALUE(LEFT(C62,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
-        <v>42561.066736111112</v>
+        <v>42560.58734953704</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>50</v>
@@ -24108,10 +24348,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="69">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H63" s="69">
-        <v>233203</v>
+        <v>233380</v>
       </c>
       <c r="I63" s="67" t="s">
         <v>52</v>
@@ -24124,7 +24364,7 @@
       </c>
       <c r="L63" s="105" t="str">
         <f>VLOOKUP(C63,'Trips&amp;Operators'!$C$1:$E$9999,3,0)</f>
-        <v>ADANE</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>108</v>
@@ -24133,34 +24373,40 @@
       <c r="O63" s="73"/>
       <c r="P63" s="76" t="str">
         <f>VLOOKUP(C63,'Train Runs'!$A$13:$AE$898,31,0)</f>
-        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-10 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-11/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-11 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-11</v>
+        <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-09/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-09 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4020/2016-07-10/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4020\2016-07-10</v>
       </c>
       <c r="Q63" s="74" t="str">
         <f>VLOOKUP(C63,'Train Runs'!$A$13:$AE$898,22,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-10 00:54:23-0600',mode:absolute,to:'2016-07-10 01:37:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-09 13:26:25-0600',mode:absolute,to:'2016-07-09 14:06:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="R63" s="75" t="str">
         <f>VLOOKUP(C63,'Train Runs'!$A$13:$AF$898,32,0)</f>
-        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
+        <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S63" s="9" t="str">
         <f>MID(B63,13,4)</f>
-        <v>4007</v>
+        <v>4020</v>
       </c>
       <c r="T63" s="50">
         <f>A63+6/24</f>
-        <v>42561.316736111112</v>
+        <v>42560.83734953704</v>
       </c>
       <c r="U63" s="73" t="str">
         <f>IF(VALUE(LEFT(C63,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
+      <c r="V63" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>OMIT</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:U63">
-    <sortState ref="A7:U63">
-      <sortCondition ref="A6:A63"/>
-    </sortState>
+  <autoFilter ref="A6:V63">
+    <filterColumn colId="21">
+      <filters>
+        <filter val="KEEP"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A7:U67">
     <sortCondition ref="U7:U67"/>
@@ -24173,17 +24419,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:N7 A8:K29 L8:N63">
-    <cfRule type="expression" dxfId="1" priority="7">
+  <conditionalFormatting sqref="L60:N63 A7:N59">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24212,14 +24458,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="str">
+      <c r="A1" s="125" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-07-09</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">

--- a/EC/Train Runs and Enforcements 2016-07-09.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2636,14 +2636,7 @@
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2658,16 +2651,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3014,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM159"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,6 +3414,10 @@
       <c r="N11" s="116"/>
       <c r="O11" s="116"/>
       <c r="P11" s="116"/>
+      <c r="S11" s="27">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.98951048951048948</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
@@ -20060,27 +20047,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="10" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="9" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S159">
-    <cfRule type="expression" dxfId="7" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S159">
-    <cfRule type="expression" dxfId="6" priority="51">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20113,8 +20100,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20338,15 +20325,15 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f>MID(B7,13,4)</f>
+        <f t="shared" ref="S7:S38" si="0">MID(B7,13,4)</f>
         <v>4031</v>
       </c>
       <c r="T7" s="50">
-        <f>A7+6/24</f>
+        <f t="shared" ref="T7:T38" si="1">A7+6/24</f>
         <v>42560.873113425929</v>
       </c>
       <c r="U7" s="73" t="str">
-        <f>IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U7:U38" si="2">IF(VALUE(LEFT(C7,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V7" s="73" t="str">
@@ -20412,19 +20399,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f>MID(B8,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
       <c r="T8" s="50">
-        <f>A8+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.1405787037</v>
       </c>
       <c r="U8" s="73" t="str">
-        <f>IF(VALUE(LEFT(C8,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V8" s="73" t="str">
-        <f t="shared" ref="V8:V63" si="0">IF(AND(E8="TRACK WARRANT AUTHORITY",G8&lt;10),"OMIT","KEEP")</f>
+        <f t="shared" ref="V8:V63" si="3">IF(AND(E8="TRACK WARRANT AUTHORITY",G8&lt;10),"OMIT","KEEP")</f>
         <v>KEEP</v>
       </c>
     </row>
@@ -20484,19 +20471,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f>MID(B9,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T9" s="50">
-        <f>A9+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.873981481483</v>
       </c>
       <c r="U9" s="73" t="str">
-        <f>IF(VALUE(LEFT(C9,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V9" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20556,19 +20543,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f>MID(B10,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4015</v>
       </c>
       <c r="T10" s="50">
-        <f>A10+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.645092592589</v>
       </c>
       <c r="U10" s="73" t="str">
-        <f>IF(VALUE(LEFT(C10,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V10" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20628,19 +20615,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f>MID(B11,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
       <c r="T11" s="50">
-        <f>A11+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.770601851851</v>
       </c>
       <c r="U11" s="73" t="str">
-        <f>IF(VALUE(LEFT(C11,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V11" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20700,19 +20687,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f>MID(B12,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
       <c r="T12" s="50">
-        <f>A12+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.974270833336</v>
       </c>
       <c r="U12" s="73" t="str">
-        <f>IF(VALUE(LEFT(C12,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V12" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20772,19 +20759,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f>MID(B13,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T13" s="50">
-        <f>A13+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.77784722222</v>
       </c>
       <c r="U13" s="73" t="str">
-        <f>IF(VALUE(LEFT(C13,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V13" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20844,19 +20831,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f>MID(B14,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
       <c r="T14" s="50">
-        <f>A14+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.76771990741</v>
       </c>
       <c r="U14" s="73" t="str">
-        <f>IF(VALUE(LEFT(C14,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V14" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20916,19 +20903,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f>MID(B15,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
       <c r="T15" s="50">
-        <f>A15+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.957280092596</v>
       </c>
       <c r="U15" s="73" t="str">
-        <f>IF(VALUE(LEFT(C15,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V15" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -20988,19 +20975,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f>MID(B16,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T16" s="50">
-        <f>A16+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.00240740741</v>
       </c>
       <c r="U16" s="73" t="str">
-        <f>IF(VALUE(LEFT(C16,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V16" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21062,19 +21049,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>MID(B17,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4008</v>
       </c>
       <c r="T17" s="50">
-        <f>A17+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.18650462963</v>
       </c>
       <c r="U17" s="73" t="str">
-        <f>IF(VALUE(LEFT(C17,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V17" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21136,19 +21123,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>MID(B18,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4020</v>
       </c>
       <c r="T18" s="50">
-        <f>A18+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.529641203706</v>
       </c>
       <c r="U18" s="73" t="str">
-        <f>IF(VALUE(LEFT(C18,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V18" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21210,19 +21197,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f>MID(B19,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
       <c r="T19" s="50">
-        <f>A19+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.691435185188</v>
       </c>
       <c r="U19" s="73" t="str">
-        <f>IF(VALUE(LEFT(C19,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V19" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21284,19 +21271,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f>MID(B20,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4040</v>
       </c>
       <c r="T20" s="50">
-        <f>A20+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.717060185183</v>
       </c>
       <c r="U20" s="73" t="str">
-        <f>IF(VALUE(LEFT(C20,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V20" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21358,19 +21345,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f>MID(B21,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T21" s="50">
-        <f>A21+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.563287037039</v>
       </c>
       <c r="U21" s="73" t="str">
-        <f>IF(VALUE(LEFT(C21,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V21" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21432,19 +21419,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>MID(B22,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T22" s="50">
-        <f>A22+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.633958333332</v>
       </c>
       <c r="U22" s="73" t="str">
-        <f>IF(VALUE(LEFT(C22,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V22" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -21504,19 +21491,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160710*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f>MID(B23,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
       <c r="T23" s="50">
-        <f>A23+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.066608796296</v>
       </c>
       <c r="U23" s="73" t="str">
-        <f>IF(VALUE(LEFT(C23,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V23" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21576,19 +21563,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f>MID(B24,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4039</v>
       </c>
       <c r="T24" s="50">
-        <f>A24+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.761921296296</v>
       </c>
       <c r="U24" s="73" t="str">
-        <f>IF(VALUE(LEFT(C24,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V24" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21648,19 +21635,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f>MID(B25,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T25" s="50">
-        <f>A25+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.734293981484</v>
       </c>
       <c r="U25" s="73" t="str">
-        <f>IF(VALUE(LEFT(C25,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V25" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21720,19 +21707,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f>MID(B26,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
       <c r="T26" s="50">
-        <f>A26+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.846354166664</v>
       </c>
       <c r="U26" s="73" t="str">
-        <f>IF(VALUE(LEFT(C26,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V26" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21792,19 +21779,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f>MID(B27,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T27" s="50">
-        <f>A27+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.877523148149</v>
       </c>
       <c r="U27" s="73" t="str">
-        <f>IF(VALUE(LEFT(C27,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V27" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21864,19 +21851,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>MID(B28,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4008</v>
       </c>
       <c r="T28" s="50">
-        <f>A28+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.886990740742</v>
       </c>
       <c r="U28" s="73" t="str">
-        <f>IF(VALUE(LEFT(C28,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V28" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -21936,19 +21923,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4039*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f>MID(B29,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4039</v>
       </c>
       <c r="T29" s="50">
-        <f>A29+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.907673611109</v>
       </c>
       <c r="U29" s="73" t="str">
-        <f>IF(VALUE(LEFT(C29,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V29" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22008,19 +21995,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f>MID(B30,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4017</v>
       </c>
       <c r="T30" s="50">
-        <f>A30+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.994050925925</v>
       </c>
       <c r="U30" s="73" t="str">
-        <f>IF(VALUE(LEFT(C30,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V30" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22080,19 +22067,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f>MID(B31,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4015</v>
       </c>
       <c r="T31" s="50">
-        <f>A31+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.014560185184</v>
       </c>
       <c r="U31" s="73" t="str">
-        <f>IF(VALUE(LEFT(C31,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V31" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22152,19 +22139,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4026*20160710*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f>MID(B32,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="T32" s="50">
-        <f>A32+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.148333333331</v>
       </c>
       <c r="U32" s="73" t="str">
-        <f>IF(VALUE(LEFT(C32,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V32" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22224,19 +22211,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4019*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f>MID(B33,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4019</v>
       </c>
       <c r="T33" s="50">
-        <f>A33+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.659155092595</v>
       </c>
       <c r="U33" s="73" t="str">
-        <f>IF(VALUE(LEFT(C33,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V33" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22296,19 +22283,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f>MID(B34,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4015</v>
       </c>
       <c r="T34" s="50">
-        <f>A34+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.793946759259</v>
       </c>
       <c r="U34" s="73" t="str">
-        <f>IF(VALUE(LEFT(C34,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V34" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22368,19 +22355,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f>MID(B35,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4028</v>
       </c>
       <c r="T35" s="50">
-        <f>A35+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.751481481479</v>
       </c>
       <c r="U35" s="73" t="str">
-        <f>IF(VALUE(LEFT(C35,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V35" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22440,19 +22427,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f>MID(B36,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4008</v>
       </c>
       <c r="T36" s="50">
-        <f>A36+6/24</f>
+        <f t="shared" si="1"/>
         <v>42561.190104166664</v>
       </c>
       <c r="U36" s="73" t="str">
-        <f>IF(VALUE(LEFT(C36,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V36" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22512,19 +22499,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f>MID(B37,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4015</v>
       </c>
       <c r="T37" s="50">
-        <f>A37+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.939745370371</v>
       </c>
       <c r="U37" s="73" t="str">
-        <f>IF(VALUE(LEFT(C37,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V37" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22584,19 +22571,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4032*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f>MID(B38,13,4)</f>
+        <f t="shared" si="0"/>
         <v>4032</v>
       </c>
       <c r="T38" s="50">
-        <f>A38+6/24</f>
+        <f t="shared" si="1"/>
         <v>42560.856377314813</v>
       </c>
       <c r="U38" s="73" t="str">
-        <f>IF(VALUE(LEFT(C38,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="2"/>
         <v>EC</v>
       </c>
       <c r="V38" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22656,19 +22643,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f>MID(B39,13,4)</f>
+        <f t="shared" ref="S39:S63" si="4">MID(B39,13,4)</f>
         <v>4028</v>
       </c>
       <c r="T39" s="50">
-        <f>A39+6/24</f>
+        <f t="shared" ref="T39:T63" si="5">A39+6/24</f>
         <v>42560.825509259259</v>
       </c>
       <c r="U39" s="73" t="str">
-        <f>IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="U39:U63" si="6">IF(VALUE(LEFT(C39,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
       <c r="V39" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22728,19 +22715,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160710*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f>MID(B40,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4015</v>
       </c>
       <c r="T40" s="50">
-        <f>A40+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.252071759256</v>
       </c>
       <c r="U40" s="73" t="str">
-        <f>IF(VALUE(LEFT(C40,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V40" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -22800,19 +22787,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160710*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f>MID(B41,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4008</v>
       </c>
       <c r="T41" s="50">
-        <f>A41+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.189699074072</v>
       </c>
       <c r="U41" s="73" t="str">
-        <f>IF(VALUE(LEFT(C41,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V41" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22872,19 +22859,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160709*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f>MID(B42,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4028</v>
       </c>
       <c r="T42" s="50">
-        <f>A42+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.82508101852</v>
       </c>
       <c r="U42" s="73" t="str">
-        <f>IF(VALUE(LEFT(C42,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V42" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -22944,19 +22931,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f>MID(B43,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T43" s="50">
-        <f>A43+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.982812499999</v>
       </c>
       <c r="U43" s="73" t="str">
-        <f>IF(VALUE(LEFT(C43,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V43" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23016,19 +23003,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f>MID(B44,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T44" s="50">
-        <f>A44+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.649236111109</v>
       </c>
       <c r="U44" s="73" t="str">
-        <f>IF(VALUE(LEFT(C44,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V44" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23088,19 +23075,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 15:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f>MID(B45,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T45" s="50">
-        <f>A45+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.65116898148</v>
       </c>
       <c r="U45" s="73" t="str">
-        <f>IF(VALUE(LEFT(C45,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V45" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -23160,19 +23147,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160710*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f>MID(B46,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T46" s="50">
-        <f>A46+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.316736111112</v>
       </c>
       <c r="U46" s="73" t="str">
-        <f>IF(VALUE(LEFT(C46,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V46" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -23232,19 +23219,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f>MID(B47,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4031</v>
       </c>
       <c r="T47" s="50">
-        <f>A47+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.743217592593</v>
       </c>
       <c r="U47" s="73" t="str">
-        <f>IF(VALUE(LEFT(C47,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V47" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>KEEP</v>
       </c>
     </row>
@@ -23304,19 +23291,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 10:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f>MID(B48,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T48" s="50">
-        <f>A48+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.431527777779</v>
       </c>
       <c r="U48" s="73" t="str">
-        <f>IF(VALUE(LEFT(C48,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V48" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23376,19 +23363,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 14:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f>MID(B49,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4031</v>
       </c>
       <c r="T49" s="50">
-        <f>A49+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.597314814811</v>
       </c>
       <c r="U49" s="73" t="str">
-        <f>IF(VALUE(LEFT(C49,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V49" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23448,19 +23435,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f>MID(B50,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4031</v>
       </c>
       <c r="T50" s="50">
-        <f>A50+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.670428240737</v>
       </c>
       <c r="U50" s="73" t="str">
-        <f>IF(VALUE(LEFT(C50,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V50" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23520,19 +23507,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 11:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f>MID(B51,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T51" s="50">
-        <f>A51+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.472777777781</v>
       </c>
       <c r="U51" s="73" t="str">
-        <f>IF(VALUE(LEFT(C51,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V51" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23592,19 +23579,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f>MID(B52,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4018</v>
       </c>
       <c r="T52" s="50">
-        <f>A52+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.514270833337</v>
       </c>
       <c r="U52" s="73" t="str">
-        <f>IF(VALUE(LEFT(C52,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V52" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23664,19 +23651,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4031*20160709*" /stext=" 12:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f>MID(B53,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4031</v>
       </c>
       <c r="T53" s="50">
-        <f>A53+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.524930555555</v>
       </c>
       <c r="U53" s="73" t="str">
-        <f>IF(VALUE(LEFT(C53,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V53" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23736,19 +23723,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 16:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f>MID(B54,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T54" s="50">
-        <f>A54+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.691851851851</v>
       </c>
       <c r="U54" s="73" t="str">
-        <f>IF(VALUE(LEFT(C54,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V54" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23808,19 +23795,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4040*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f>MID(B55,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4040</v>
       </c>
       <c r="T55" s="50">
-        <f>A55+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.868287037039</v>
       </c>
       <c r="U55" s="73" t="str">
-        <f>IF(VALUE(LEFT(C55,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V55" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23880,19 +23867,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f>MID(B56,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4018</v>
       </c>
       <c r="T56" s="50">
-        <f>A56+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.951481481483</v>
       </c>
       <c r="U56" s="73" t="str">
-        <f>IF(VALUE(LEFT(C56,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V56" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -23952,19 +23939,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160710*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f>MID(B57,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4018</v>
       </c>
       <c r="T57" s="50">
-        <f>A57+6/24</f>
+        <f t="shared" si="5"/>
         <v>42561.025509259256</v>
       </c>
       <c r="U57" s="73" t="str">
-        <f>IF(VALUE(LEFT(C57,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V57" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24024,19 +24011,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160709*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f>MID(B58,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4018</v>
       </c>
       <c r="T58" s="50">
-        <f>A58+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.879583333335</v>
       </c>
       <c r="U58" s="73" t="str">
-        <f>IF(VALUE(LEFT(C58,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V58" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24096,19 +24083,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f>MID(B59,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T59" s="50">
-        <f>A59+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.710659722223</v>
       </c>
       <c r="U59" s="73" t="str">
-        <f>IF(VALUE(LEFT(C59,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V59" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24168,19 +24155,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f>MID(B60,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T60" s="50">
-        <f>A60+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.920706018522</v>
       </c>
       <c r="U60" s="73" t="str">
-        <f>IF(VALUE(LEFT(C60,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V60" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24240,19 +24227,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f>MID(B61,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T61" s="50">
-        <f>A61+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.847442129627</v>
       </c>
       <c r="U61" s="73" t="str">
-        <f>IF(VALUE(LEFT(C61,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V61" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24312,19 +24299,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160709*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f>MID(B62,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4007</v>
       </c>
       <c r="T62" s="50">
-        <f>A62+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.993703703702</v>
       </c>
       <c r="U62" s="73" t="str">
-        <f>IF(VALUE(LEFT(C62,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V62" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24384,19 +24371,19 @@
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4020*20160709*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f>MID(B63,13,4)</f>
+        <f t="shared" si="4"/>
         <v>4020</v>
       </c>
       <c r="T63" s="50">
-        <f>A63+6/24</f>
+        <f t="shared" si="5"/>
         <v>42560.83734953704</v>
       </c>
       <c r="U63" s="73" t="str">
-        <f>IF(VALUE(LEFT(C63,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" si="6"/>
         <v>EC</v>
       </c>
       <c r="V63" s="73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>OMIT</v>
       </c>
     </row>
@@ -24419,17 +24406,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:N63 A7:N59">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
